--- a/JupyterNotebooks/AvgHW/ShearF-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,18 +82,21 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.009677850131384</v>
+        <v>0.974296197666459</v>
       </c>
       <c r="D3">
         <v>1.065652091487269</v>
       </c>
       <c r="E3">
-        <v>0.974296197666459</v>
+        <v>1.009677850131384</v>
       </c>
       <c r="F3">
+        <v>1.065652091487269</v>
+      </c>
+      <c r="G3">
         <v>1.009677850131384</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.9621776901975018</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.028106023773313</v>
       </c>
-      <c r="I3">
-        <v>0.9839422651769505</v>
-      </c>
       <c r="J3">
-        <v>1.065652091487269</v>
+        <v>0.9839422651769512</v>
       </c>
       <c r="K3">
         <v>1.009677850131384</v>
@@ -728,7 +680,7 @@
         <v>1.003975353072146</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.017286118577783</v>
+        <v>0.9514014248817598</v>
       </c>
       <c r="D4">
         <v>1.123897035372008</v>
       </c>
       <c r="E4">
-        <v>0.9514014248817598</v>
+        <v>1.017286118577783</v>
       </c>
       <c r="F4">
+        <v>1.123897035372008</v>
+      </c>
+      <c r="G4">
         <v>1.017286118577783</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.9258221218428564</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.054285445223912</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.9694195785885517</v>
-      </c>
-      <c r="J4">
-        <v>1.123897035372008</v>
       </c>
       <c r="K4">
         <v>1.017286118577783</v>
@@ -790,7 +742,7 @@
         <v>1.007018620747812</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.033587464509557</v>
+        <v>0.9062946803450808</v>
       </c>
       <c r="D5">
         <v>1.244466477190183</v>
       </c>
       <c r="E5">
-        <v>0.9062946803450808</v>
+        <v>1.033587464509557</v>
       </c>
       <c r="F5">
+        <v>1.244466477190183</v>
+      </c>
+      <c r="G5">
         <v>1.033587464509557</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.8612893442806046</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.103745617641294</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.9406557176153538</v>
-      </c>
-      <c r="J5">
-        <v>1.244466477190183</v>
       </c>
       <c r="K5">
         <v>1.033587464509557</v>
@@ -852,7 +804,7 @@
         <v>1.015006550263679</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.049792304360619</v>
+        <v>0.865754705660288</v>
       </c>
       <c r="D6">
         <v>1.365441915193714</v>
       </c>
       <c r="E6">
-        <v>0.865754705660288</v>
+        <v>1.049792304360619</v>
       </c>
       <c r="F6">
+        <v>1.365441915193714</v>
+      </c>
+      <c r="G6">
         <v>1.049792304360619</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.8022216698775988</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.155924147036722</v>
       </c>
-      <c r="I6">
-        <v>0.910856839520045</v>
-      </c>
       <c r="J6">
-        <v>1.365441915193714</v>
+        <v>0.9108568395200449</v>
       </c>
       <c r="K6">
         <v>1.049792304360619</v>
@@ -896,7 +848,7 @@
         <v>1.115598310427001</v>
       </c>
       <c r="O6">
-        <v>1.129040255963574</v>
+        <v>1.129040255963575</v>
       </c>
       <c r="P6">
         <v>1.09366297507154</v>
@@ -911,10 +863,10 @@
         <v>1.08269530739381</v>
       </c>
       <c r="T6">
-        <v>1.024998596941498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.024998596941497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,34 +874,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9992677283860044</v>
+        <v>0.9989722233958594</v>
       </c>
       <c r="D7">
         <v>1.00604779893712</v>
       </c>
       <c r="E7">
-        <v>0.998972223395859</v>
+        <v>0.9992677283860051</v>
       </c>
       <c r="F7">
-        <v>0.9992677283860044</v>
+        <v>1.00604779893712</v>
       </c>
       <c r="G7">
+        <v>0.9992677283860051</v>
+      </c>
+      <c r="H7">
         <v>0.9987182299546676</v>
       </c>
-      <c r="H7">
-        <v>1.001519556531079</v>
-      </c>
       <c r="I7">
-        <v>0.9990300807027545</v>
+        <v>1.00151955653108</v>
       </c>
       <c r="J7">
-        <v>1.00604779893712</v>
+        <v>0.9990300807027542</v>
       </c>
       <c r="K7">
-        <v>0.9992677283860044</v>
+        <v>0.9992677283860051</v>
       </c>
       <c r="L7">
-        <v>0.998972223395859</v>
+        <v>0.9989722233958594</v>
       </c>
       <c r="M7">
         <v>1.00251001116649</v>
@@ -961,10 +913,10 @@
         <v>1.002179859621353</v>
       </c>
       <c r="P7">
-        <v>1.001429250239661</v>
+        <v>1.001429250239662</v>
       </c>
       <c r="Q7">
-        <v>1.001429250239661</v>
+        <v>1.001429250239662</v>
       </c>
       <c r="R7">
         <v>1.000888869776247</v>
@@ -976,7 +928,7 @@
         <v>1.000592602984581</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,49 +936,49 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9988940818331777</v>
+        <v>0.9972915753311027</v>
       </c>
       <c r="D8">
-        <v>1.01420768046997</v>
+        <v>1.014207680469971</v>
       </c>
       <c r="E8">
-        <v>0.997291575331103</v>
+        <v>0.9988940818331773</v>
       </c>
       <c r="F8">
-        <v>0.9988940818331777</v>
+        <v>1.014207680469971</v>
       </c>
       <c r="G8">
-        <v>0.9969090086037312</v>
+        <v>0.9988940818331773</v>
       </c>
       <c r="H8">
-        <v>1.003566601050469</v>
+        <v>0.9969090086037318</v>
       </c>
       <c r="I8">
-        <v>0.9976545335677475</v>
+        <v>1.00356660105047</v>
       </c>
       <c r="J8">
-        <v>1.01420768046997</v>
+        <v>0.9976545335677479</v>
       </c>
       <c r="K8">
-        <v>0.9988940818331777</v>
+        <v>0.9988940818331773</v>
       </c>
       <c r="L8">
-        <v>0.997291575331103</v>
+        <v>0.9972915753311027</v>
       </c>
       <c r="M8">
-        <v>1.005749627900536</v>
+        <v>1.005749627900537</v>
       </c>
       <c r="N8">
-        <v>1.005749627900536</v>
+        <v>1.005749627900537</v>
       </c>
       <c r="O8">
-        <v>1.005021952283847</v>
+        <v>1.005021952283848</v>
       </c>
       <c r="P8">
-        <v>1.003464445878083</v>
+        <v>1.003464445878084</v>
       </c>
       <c r="Q8">
-        <v>1.003464445878083</v>
+        <v>1.003464445878084</v>
       </c>
       <c r="R8">
         <v>1.002321854866857</v>
@@ -1038,7 +990,7 @@
         <v>1.0014205801427</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9994652713342531</v>
+        <v>0.9963085097215743</v>
       </c>
       <c r="D9">
         <v>1.017732998163203</v>
       </c>
       <c r="E9">
-        <v>0.9963085097215743</v>
+        <v>0.9994652713342531</v>
       </c>
       <c r="F9">
+        <v>1.017732998163203</v>
+      </c>
+      <c r="G9">
         <v>0.9994652713342531</v>
       </c>
-      <c r="G9">
-        <v>0.9945027030350654</v>
-      </c>
       <c r="H9">
+        <v>0.9945027030350655</v>
+      </c>
+      <c r="I9">
         <v>1.004679669120432</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.9970157713431881</v>
-      </c>
-      <c r="J9">
-        <v>1.017732998163203</v>
       </c>
       <c r="K9">
         <v>0.9994652713342531</v>
@@ -1100,7 +1052,7 @@
         <v>1.001617487119619</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,34 +1060,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9975142033025718</v>
+        <v>0.99230867564364</v>
       </c>
       <c r="D10">
         <v>1.040856449498886</v>
       </c>
       <c r="E10">
-        <v>0.9923086756436403</v>
+        <v>0.9975142033025718</v>
       </c>
       <c r="F10">
+        <v>1.040856449498886</v>
+      </c>
+      <c r="G10">
         <v>0.9975142033025718</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.9892472762326249</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1.010184946723952</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.993412281597173</v>
-      </c>
-      <c r="J10">
-        <v>1.040856449498886</v>
       </c>
       <c r="K10">
         <v>0.9975142033025718</v>
       </c>
       <c r="L10">
-        <v>0.9923086756436403</v>
+        <v>0.99230867564364</v>
       </c>
       <c r="M10">
         <v>1.016582562571263</v>
@@ -1162,7 +1114,7 @@
         <v>1.003920638833141</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999651098574764</v>
+        <v>0.9858096078349293</v>
       </c>
       <c r="D11">
         <v>1.06268403679827</v>
       </c>
       <c r="E11">
-        <v>0.9858096078349293</v>
+        <v>0.9999651098574764</v>
       </c>
       <c r="F11">
+        <v>1.06268403679827</v>
+      </c>
+      <c r="G11">
         <v>0.9999651098574764</v>
       </c>
-      <c r="G11">
-        <v>0.9810872378089289</v>
-      </c>
       <c r="H11">
+        <v>0.9810872378089286</v>
+      </c>
+      <c r="I11">
         <v>1.016694447237525</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.989050455333751</v>
-      </c>
-      <c r="J11">
-        <v>1.06268403679827</v>
       </c>
       <c r="K11">
         <v>0.9999651098574764</v>
@@ -1224,7 +1176,7 @@
         <v>1.005881815811813</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,34 +1184,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.823256695440803</v>
+        <v>0.7841456195919567</v>
       </c>
       <c r="D12">
-        <v>0.3862134170529798</v>
+        <v>0.3862134170529795</v>
       </c>
       <c r="E12">
-        <v>0.7841456195919565</v>
+        <v>1.823256695440804</v>
       </c>
       <c r="F12">
-        <v>1.823256695440803</v>
+        <v>0.3862134170529795</v>
       </c>
       <c r="G12">
+        <v>1.823256695440804</v>
+      </c>
+      <c r="H12">
         <v>0.4366272723675221</v>
       </c>
-      <c r="H12">
-        <v>0.8424217582270387</v>
-      </c>
       <c r="I12">
+        <v>0.8424217582270386</v>
+      </c>
+      <c r="J12">
         <v>1.094410835244078</v>
       </c>
-      <c r="J12">
-        <v>0.3862134170529798</v>
-      </c>
       <c r="K12">
-        <v>1.823256695440803</v>
+        <v>1.823256695440804</v>
       </c>
       <c r="L12">
-        <v>0.7841456195919565</v>
+        <v>0.7841456195919567</v>
       </c>
       <c r="M12">
         <v>0.5851795183224682</v>
@@ -1268,13 +1220,13 @@
         <v>0.5851795183224682</v>
       </c>
       <c r="O12">
-        <v>0.6709269316239918</v>
+        <v>0.6709269316239915</v>
       </c>
       <c r="P12">
         <v>0.9978719106952466</v>
       </c>
       <c r="Q12">
-        <v>0.9978719106952464</v>
+        <v>0.9978719106952466</v>
       </c>
       <c r="R12">
         <v>1.204218106881636</v>
@@ -1286,7 +1238,7 @@
         <v>0.894512599654063</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.6535133014708882</v>
+        <v>1.186105343260666</v>
       </c>
       <c r="D13">
-        <v>1.039018288742479</v>
+        <v>1.039018288742478</v>
       </c>
       <c r="E13">
-        <v>1.186105343260665</v>
+        <v>0.653513301470888</v>
       </c>
       <c r="F13">
-        <v>0.6535133014708882</v>
+        <v>1.039018288742478</v>
       </c>
       <c r="G13">
+        <v>0.653513301470888</v>
+      </c>
+      <c r="H13">
         <v>1.283617992978145</v>
       </c>
-      <c r="H13">
-        <v>0.9589762362083105</v>
-      </c>
       <c r="I13">
+        <v>0.9589762362083106</v>
+      </c>
+      <c r="J13">
         <v>1.027484489848742</v>
       </c>
-      <c r="J13">
-        <v>1.039018288742479</v>
-      </c>
       <c r="K13">
-        <v>0.6535133014708882</v>
+        <v>0.653513301470888</v>
       </c>
       <c r="L13">
-        <v>1.186105343260665</v>
+        <v>1.186105343260666</v>
       </c>
       <c r="M13">
         <v>1.112561816001572</v>
@@ -1336,19 +1288,19 @@
         <v>0.9595456444913441</v>
       </c>
       <c r="Q13">
-        <v>0.9595456444913441</v>
+        <v>0.9595456444913442</v>
       </c>
       <c r="R13">
-        <v>0.88303755873623</v>
+        <v>0.8830375587362301</v>
       </c>
       <c r="S13">
-        <v>0.88303755873623</v>
+        <v>0.8830375587362301</v>
       </c>
       <c r="T13">
         <v>1.024785942084872</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,43 +1308,43 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7520861600358774</v>
+        <v>1.320078409666073</v>
       </c>
       <c r="D14">
-        <v>0.3813712719179751</v>
+        <v>0.381371271917975</v>
       </c>
       <c r="E14">
-        <v>1.320078409666073</v>
+        <v>0.7520861600358772</v>
       </c>
       <c r="F14">
-        <v>0.7520861600358774</v>
+        <v>0.381371271917975</v>
       </c>
       <c r="G14">
-        <v>1.604221700991156</v>
+        <v>0.7520861600358772</v>
       </c>
       <c r="H14">
+        <v>1.604221700991157</v>
+      </c>
+      <c r="I14">
         <v>0.6863087614103456</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1.167465994453291</v>
       </c>
-      <c r="J14">
-        <v>0.3813712719179751</v>
-      </c>
       <c r="K14">
-        <v>0.7520861600358774</v>
+        <v>0.7520861600358772</v>
       </c>
       <c r="L14">
         <v>1.320078409666073</v>
       </c>
       <c r="M14">
-        <v>0.850724840792024</v>
+        <v>0.8507248407920239</v>
       </c>
       <c r="N14">
-        <v>0.850724840792024</v>
+        <v>0.8507248407920239</v>
       </c>
       <c r="O14">
-        <v>0.7959194809981313</v>
+        <v>0.7959194809981311</v>
       </c>
       <c r="P14">
         <v>0.8178452805399751</v>
@@ -1407,10 +1359,10 @@
         <v>0.8014055004139506</v>
       </c>
       <c r="T14">
-        <v>0.9852553830791196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9852553830791199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.868430043618947</v>
+      </c>
+      <c r="D15">
+        <v>0.9779470090928963</v>
+      </c>
+      <c r="E15">
         <v>1.299517487579263</v>
       </c>
-      <c r="D15">
-        <v>0.9779470090928964</v>
-      </c>
-      <c r="E15">
-        <v>0.868430043618947</v>
-      </c>
       <c r="F15">
+        <v>0.9779470090928963</v>
+      </c>
+      <c r="G15">
         <v>1.299517487579263</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.131824778943258</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.9285479863510481</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.9859946765421506</v>
-      </c>
-      <c r="J15">
-        <v>0.9779470090928964</v>
       </c>
       <c r="K15">
         <v>1.299517487579263</v>
@@ -1448,13 +1400,13 @@
         <v>0.868430043618947</v>
       </c>
       <c r="M15">
-        <v>0.9231885263559217</v>
+        <v>0.9231885263559216</v>
       </c>
       <c r="N15">
-        <v>0.9231885263559217</v>
+        <v>0.9231885263559216</v>
       </c>
       <c r="O15">
-        <v>0.9249750130209639</v>
+        <v>0.9249750130209637</v>
       </c>
       <c r="P15">
         <v>1.048631513430369</v>
@@ -1472,7 +1424,7 @@
         <v>1.032043663687927</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9992206348544996</v>
+        <v>0.5314744974315894</v>
       </c>
       <c r="D16">
-        <v>1.001199783745384</v>
+        <v>2.246500212875825</v>
       </c>
       <c r="E16">
-        <v>1.000287594564137</v>
+        <v>1.132351741095312</v>
       </c>
       <c r="F16">
-        <v>0.9992206348544996</v>
+        <v>2.246500212875825</v>
       </c>
       <c r="G16">
-        <v>1.000731203297439</v>
+        <v>1.132351741095312</v>
       </c>
       <c r="H16">
-        <v>0.9999629934562864</v>
+        <v>0.2614244704545782</v>
       </c>
       <c r="I16">
-        <v>0.9999383791568319</v>
+        <v>1.547928539462942</v>
       </c>
       <c r="J16">
-        <v>1.001199783745384</v>
+        <v>0.6963263980699606</v>
       </c>
       <c r="K16">
-        <v>0.9992206348544996</v>
+        <v>1.132351741095312</v>
       </c>
       <c r="L16">
-        <v>1.000287594564137</v>
+        <v>0.5314744974315894</v>
       </c>
       <c r="M16">
-        <v>1.000743689154761</v>
+        <v>1.388987355153707</v>
       </c>
       <c r="N16">
-        <v>1.000743689154761</v>
+        <v>1.388987355153707</v>
       </c>
       <c r="O16">
-        <v>1.000483457255269</v>
+        <v>1.441967749923452</v>
       </c>
       <c r="P16">
-        <v>1.000236004388007</v>
+        <v>1.303442150467575</v>
       </c>
       <c r="Q16">
-        <v>1.000236004388007</v>
+        <v>1.303442150467575</v>
       </c>
       <c r="R16">
-        <v>0.9999821620046303</v>
+        <v>1.260669548124509</v>
       </c>
       <c r="S16">
-        <v>0.9999821620046303</v>
+        <v>1.260669548124509</v>
       </c>
       <c r="T16">
-        <v>1.00022343151243</v>
+        <v>1.069334309898368</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9995797988130505</v>
+        <v>0.6480528419957197</v>
       </c>
       <c r="D17">
-        <v>1.007768945915993</v>
+        <v>2.054876813722774</v>
       </c>
       <c r="E17">
-        <v>0.9982256504808694</v>
+        <v>1.039887411162746</v>
       </c>
       <c r="F17">
-        <v>0.9995797988130505</v>
+        <v>2.054876813722774</v>
       </c>
       <c r="G17">
-        <v>0.9976229903493548</v>
+        <v>1.039887411162746</v>
       </c>
       <c r="H17">
-        <v>1.001991074795589</v>
+        <v>0.4429138202612741</v>
       </c>
       <c r="I17">
-        <v>0.9987702758859879</v>
+        <v>1.442721248408719</v>
       </c>
       <c r="J17">
-        <v>1.007768945915993</v>
+        <v>0.7552063028209707</v>
       </c>
       <c r="K17">
-        <v>0.9995797988130505</v>
+        <v>1.039887411162746</v>
       </c>
       <c r="L17">
-        <v>0.9982256504808694</v>
+        <v>0.6480528419957197</v>
       </c>
       <c r="M17">
-        <v>1.002997298198431</v>
+        <v>1.351464827859247</v>
       </c>
       <c r="N17">
-        <v>1.002997298198431</v>
+        <v>1.351464827859247</v>
       </c>
       <c r="O17">
-        <v>1.002661890397484</v>
+        <v>1.381883634709071</v>
       </c>
       <c r="P17">
-        <v>1.001858131736638</v>
+        <v>1.247605688960413</v>
       </c>
       <c r="Q17">
-        <v>1.001858131736638</v>
+        <v>1.247605688960413</v>
       </c>
       <c r="R17">
-        <v>1.001288548505741</v>
+        <v>1.195676119510996</v>
       </c>
       <c r="S17">
-        <v>1.001288548505741</v>
+        <v>1.195676119510996</v>
       </c>
       <c r="T17">
-        <v>1.000659789373474</v>
+        <v>1.063943073062034</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.002417723924251</v>
+        <v>0.881128677677445</v>
       </c>
       <c r="D18">
-        <v>1.016453512814755</v>
+        <v>1.665005126417676</v>
       </c>
       <c r="E18">
-        <v>0.9929078595209913</v>
+        <v>0.8582076072135825</v>
       </c>
       <c r="F18">
-        <v>1.002417723924251</v>
+        <v>1.665005126417676</v>
       </c>
       <c r="G18">
-        <v>0.9885302137362443</v>
+        <v>0.8582076072135825</v>
       </c>
       <c r="H18">
-        <v>1.009027239547845</v>
+        <v>0.8054027441320195</v>
       </c>
       <c r="I18">
-        <v>0.9949656746586842</v>
+        <v>1.230956712193499</v>
       </c>
       <c r="J18">
-        <v>1.016453512814755</v>
+        <v>0.8737435576202341</v>
       </c>
       <c r="K18">
-        <v>1.002417723924251</v>
+        <v>0.8582076072135825</v>
       </c>
       <c r="L18">
-        <v>0.9929078595209913</v>
+        <v>0.881128677677445</v>
       </c>
       <c r="M18">
-        <v>1.004680686167873</v>
+        <v>1.273066902047561</v>
       </c>
       <c r="N18">
-        <v>1.004680686167873</v>
+        <v>1.273066902047561</v>
       </c>
       <c r="O18">
-        <v>1.00612953729453</v>
+        <v>1.259030172096207</v>
       </c>
       <c r="P18">
-        <v>1.003926365419999</v>
+        <v>1.134780470436235</v>
       </c>
       <c r="Q18">
-        <v>1.003926365419999</v>
+        <v>1.134780470436235</v>
       </c>
       <c r="R18">
-        <v>1.003549205046062</v>
+        <v>1.065637254630572</v>
       </c>
       <c r="S18">
-        <v>1.003549205046062</v>
+        <v>1.065637254630572</v>
       </c>
       <c r="T18">
-        <v>1.000717037367129</v>
+        <v>1.052407404209076</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8476421073386465</v>
+      </c>
+      <c r="D19">
+        <v>1.845581869191943</v>
+      </c>
+      <c r="E19">
+        <v>0.8585016756410357</v>
+      </c>
+      <c r="F19">
+        <v>1.845581869191943</v>
+      </c>
+      <c r="G19">
+        <v>0.8585016756410357</v>
+      </c>
+      <c r="H19">
+        <v>0.8527832579274537</v>
+      </c>
+      <c r="I19">
+        <v>1.241319418985587</v>
+      </c>
+      <c r="J19">
+        <v>0.8506218737527738</v>
+      </c>
+      <c r="K19">
+        <v>0.8585016756410357</v>
+      </c>
+      <c r="L19">
+        <v>0.8476421073386465</v>
+      </c>
+      <c r="M19">
+        <v>1.346611988265294</v>
+      </c>
+      <c r="N19">
+        <v>1.346611988265294</v>
+      </c>
+      <c r="O19">
+        <v>1.311514465172058</v>
+      </c>
+      <c r="P19">
+        <v>1.183908550723875</v>
+      </c>
+      <c r="Q19">
+        <v>1.183908550723875</v>
+      </c>
+      <c r="R19">
+        <v>1.102556831953165</v>
+      </c>
+      <c r="S19">
+        <v>1.102556831953165</v>
+      </c>
+      <c r="T19">
+        <v>1.082741700472907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000287594564137</v>
+      </c>
+      <c r="D20">
+        <v>1.001199783745385</v>
+      </c>
+      <c r="E20">
+        <v>0.9992206348544996</v>
+      </c>
+      <c r="F20">
+        <v>1.001199783745385</v>
+      </c>
+      <c r="G20">
+        <v>0.9992206348544996</v>
+      </c>
+      <c r="H20">
+        <v>1.000731203297438</v>
+      </c>
+      <c r="I20">
+        <v>0.9999629934562865</v>
+      </c>
+      <c r="J20">
+        <v>0.9999383791568315</v>
+      </c>
+      <c r="K20">
+        <v>0.9992206348544996</v>
+      </c>
+      <c r="L20">
+        <v>1.000287594564137</v>
+      </c>
+      <c r="M20">
+        <v>1.000743689154761</v>
+      </c>
+      <c r="N20">
+        <v>1.000743689154761</v>
+      </c>
+      <c r="O20">
+        <v>1.00048345725527</v>
+      </c>
+      <c r="P20">
+        <v>1.000236004388007</v>
+      </c>
+      <c r="Q20">
+        <v>1.000236004388007</v>
+      </c>
+      <c r="R20">
+        <v>0.9999821620046303</v>
+      </c>
+      <c r="S20">
+        <v>0.9999821620046303</v>
+      </c>
+      <c r="T20">
+        <v>1.00022343151243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9982256504808689</v>
+      </c>
+      <c r="D21">
+        <v>1.007768945915994</v>
+      </c>
+      <c r="E21">
+        <v>0.9995797988130499</v>
+      </c>
+      <c r="F21">
+        <v>1.007768945915994</v>
+      </c>
+      <c r="G21">
+        <v>0.9995797988130499</v>
+      </c>
+      <c r="H21">
+        <v>0.9976229903493548</v>
+      </c>
+      <c r="I21">
+        <v>1.00199107479559</v>
+      </c>
+      <c r="J21">
+        <v>0.9987702758859875</v>
+      </c>
+      <c r="K21">
+        <v>0.9995797988130499</v>
+      </c>
+      <c r="L21">
+        <v>0.9982256504808689</v>
+      </c>
+      <c r="M21">
+        <v>1.002997298198431</v>
+      </c>
+      <c r="N21">
+        <v>1.002997298198431</v>
+      </c>
+      <c r="O21">
+        <v>1.002661890397484</v>
+      </c>
+      <c r="P21">
+        <v>1.001858131736638</v>
+      </c>
+      <c r="Q21">
+        <v>1.001858131736638</v>
+      </c>
+      <c r="R21">
+        <v>1.001288548505741</v>
+      </c>
+      <c r="S21">
+        <v>1.001288548505741</v>
+      </c>
+      <c r="T21">
+        <v>1.000659789373474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9929078595209913</v>
+      </c>
+      <c r="D22">
+        <v>1.016453512814755</v>
+      </c>
+      <c r="E22">
+        <v>1.002417723924251</v>
+      </c>
+      <c r="F22">
+        <v>1.016453512814755</v>
+      </c>
+      <c r="G22">
+        <v>1.002417723924251</v>
+      </c>
+      <c r="H22">
+        <v>0.9885302137362426</v>
+      </c>
+      <c r="I22">
+        <v>1.009027239547845</v>
+      </c>
+      <c r="J22">
+        <v>0.9949656746586839</v>
+      </c>
+      <c r="K22">
+        <v>1.002417723924251</v>
+      </c>
+      <c r="L22">
+        <v>0.9929078595209913</v>
+      </c>
+      <c r="M22">
+        <v>1.004680686167873</v>
+      </c>
+      <c r="N22">
+        <v>1.004680686167873</v>
+      </c>
+      <c r="O22">
+        <v>1.00612953729453</v>
+      </c>
+      <c r="P22">
+        <v>1.003926365419999</v>
+      </c>
+      <c r="Q22">
+        <v>1.003926365419999</v>
+      </c>
+      <c r="R22">
+        <v>1.003549205046062</v>
+      </c>
+      <c r="S22">
+        <v>1.003549205046062</v>
+      </c>
+      <c r="T22">
+        <v>1.000717037367128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.981839738064384</v>
+      </c>
+      <c r="D23">
+        <v>1.043499468143434</v>
+      </c>
+      <c r="E23">
         <v>1.007658835210097</v>
       </c>
-      <c r="D19">
+      <c r="F23">
         <v>1.043499468143434</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.007658835210097</v>
+      </c>
+      <c r="H23">
+        <v>0.971147457381268</v>
+      </c>
+      <c r="I23">
+        <v>1.02062361359641</v>
+      </c>
+      <c r="J23">
+        <v>0.9885126682138657</v>
+      </c>
+      <c r="K23">
+        <v>1.007658835210097</v>
+      </c>
+      <c r="L23">
         <v>0.981839738064384</v>
       </c>
-      <c r="F19">
-        <v>1.007658835210097</v>
-      </c>
-      <c r="G19">
-        <v>0.971147457381268</v>
-      </c>
-      <c r="H19">
-        <v>1.02062361359641</v>
-      </c>
-      <c r="I19">
-        <v>0.988512668213866</v>
-      </c>
-      <c r="J19">
-        <v>1.043499468143434</v>
-      </c>
-      <c r="K19">
-        <v>1.007658835210097</v>
-      </c>
-      <c r="L19">
-        <v>0.981839738064384</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.012669603103909</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.012669603103909</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.015320939934743</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.010999347139306</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.010999347139305</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.010164219157003</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.010164219157003</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.002213630101576</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/ShearF-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.974296197666459</v>
+        <v>0.8563186802017255</v>
       </c>
       <c r="D3">
-        <v>1.065652091487269</v>
+        <v>1.810818290925788</v>
       </c>
       <c r="E3">
-        <v>1.009677850131384</v>
+        <v>0.8405780694704599</v>
       </c>
       <c r="F3">
-        <v>1.065652091487269</v>
+        <v>1.810818290925788</v>
       </c>
       <c r="G3">
-        <v>1.009677850131384</v>
+        <v>0.8405780694704599</v>
       </c>
       <c r="H3">
-        <v>0.9621776901975018</v>
+        <v>0.7835222552246446</v>
       </c>
       <c r="I3">
-        <v>1.028106023773313</v>
+        <v>1.265534963316994</v>
       </c>
       <c r="J3">
-        <v>0.9839422651769512</v>
+        <v>0.8504474434365958</v>
       </c>
       <c r="K3">
-        <v>1.009677850131384</v>
+        <v>0.8405780694704599</v>
       </c>
       <c r="L3">
-        <v>0.974296197666459</v>
+        <v>0.8563186802017255</v>
       </c>
       <c r="M3">
-        <v>1.019974144576864</v>
+        <v>1.333568485563757</v>
       </c>
       <c r="N3">
-        <v>1.019974144576864</v>
+        <v>1.333568485563757</v>
       </c>
       <c r="O3">
-        <v>1.02268477097568</v>
+        <v>1.310890644814836</v>
       </c>
       <c r="P3">
-        <v>1.016542046428371</v>
+        <v>1.169238346865991</v>
       </c>
       <c r="Q3">
-        <v>1.016542046428371</v>
+        <v>1.169238346865991</v>
       </c>
       <c r="R3">
-        <v>1.014825997354124</v>
+        <v>1.087073277517108</v>
       </c>
       <c r="S3">
-        <v>1.014825997354124</v>
+        <v>1.087073277517108</v>
       </c>
       <c r="T3">
-        <v>1.003975353072146</v>
+        <v>1.067869950429368</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9514014248817598</v>
+        <v>0.8706367505786422</v>
       </c>
       <c r="D4">
-        <v>1.123897035372008</v>
+        <v>1.734422183725514</v>
       </c>
       <c r="E4">
-        <v>1.017286118577783</v>
+        <v>0.8468539681908368</v>
       </c>
       <c r="F4">
-        <v>1.123897035372008</v>
+        <v>1.734422183725514</v>
       </c>
       <c r="G4">
-        <v>1.017286118577783</v>
+        <v>0.8468539681908368</v>
       </c>
       <c r="H4">
-        <v>0.9258221218428564</v>
+        <v>0.7972498726758129</v>
       </c>
       <c r="I4">
-        <v>1.054285445223912</v>
+        <v>1.247242426870464</v>
       </c>
       <c r="J4">
-        <v>0.9694195785885517</v>
+        <v>0.8628791758525961</v>
       </c>
       <c r="K4">
-        <v>1.017286118577783</v>
+        <v>0.8468539681908368</v>
       </c>
       <c r="L4">
-        <v>0.9514014248817598</v>
+        <v>0.8706367505786422</v>
       </c>
       <c r="M4">
-        <v>1.037649230126884</v>
+        <v>1.302529467152078</v>
       </c>
       <c r="N4">
-        <v>1.037649230126884</v>
+        <v>1.302529467152078</v>
       </c>
       <c r="O4">
-        <v>1.043194635159227</v>
+        <v>1.284100453724873</v>
       </c>
       <c r="P4">
-        <v>1.030861526277183</v>
+        <v>1.150637634164998</v>
       </c>
       <c r="Q4">
-        <v>1.030861526277183</v>
+        <v>1.150637634164998</v>
       </c>
       <c r="R4">
-        <v>1.027467674352333</v>
+        <v>1.074691717671457</v>
       </c>
       <c r="S4">
-        <v>1.027467674352333</v>
+        <v>1.074691717671457</v>
       </c>
       <c r="T4">
-        <v>1.007018620747812</v>
+        <v>1.059880729648978</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9062946803450808</v>
+        <v>0.8291300353638819</v>
       </c>
       <c r="D5">
-        <v>1.244466477190183</v>
+        <v>1.955732574711861</v>
       </c>
       <c r="E5">
-        <v>1.033587464509557</v>
+        <v>0.8293075850188679</v>
       </c>
       <c r="F5">
-        <v>1.244466477190183</v>
+        <v>1.955732574711861</v>
       </c>
       <c r="G5">
-        <v>1.033587464509557</v>
+        <v>0.8293075850188679</v>
       </c>
       <c r="H5">
-        <v>0.8612893442806046</v>
+        <v>0.7572302325989215</v>
       </c>
       <c r="I5">
-        <v>1.103745617641294</v>
+        <v>1.299907747509436</v>
       </c>
       <c r="J5">
-        <v>0.9406557176153538</v>
+        <v>0.8269802247439375</v>
       </c>
       <c r="K5">
-        <v>1.033587464509557</v>
+        <v>0.8293075850188679</v>
       </c>
       <c r="L5">
-        <v>0.9062946803450808</v>
+        <v>0.8291300353638819</v>
       </c>
       <c r="M5">
-        <v>1.075380578767632</v>
+        <v>1.392431305037871</v>
       </c>
       <c r="N5">
-        <v>1.075380578767632</v>
+        <v>1.392431305037871</v>
       </c>
       <c r="O5">
-        <v>1.084835591725519</v>
+        <v>1.361590119195059</v>
       </c>
       <c r="P5">
-        <v>1.061449540681607</v>
+        <v>1.20472339836487</v>
       </c>
       <c r="Q5">
-        <v>1.061449540681607</v>
+        <v>1.20472339836487</v>
       </c>
       <c r="R5">
-        <v>1.054484021638594</v>
+        <v>1.11086944502837</v>
       </c>
       <c r="S5">
-        <v>1.054484021638594</v>
+        <v>1.11086944502837</v>
       </c>
       <c r="T5">
-        <v>1.015006550263679</v>
+        <v>1.083048066657818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.865754705660288</v>
+        <v>0.8037475688068182</v>
       </c>
       <c r="D6">
-        <v>1.365441915193714</v>
+        <v>2.09083616538068</v>
       </c>
       <c r="E6">
-        <v>1.049792304360619</v>
+        <v>0.8195551260795449</v>
       </c>
       <c r="F6">
-        <v>1.365441915193714</v>
+        <v>2.09083616538068</v>
       </c>
       <c r="G6">
-        <v>1.049792304360619</v>
+        <v>0.8195551260795449</v>
       </c>
       <c r="H6">
-        <v>0.8022216698775988</v>
+        <v>0.7324177081045447</v>
       </c>
       <c r="I6">
-        <v>1.155924147036722</v>
+        <v>1.331565396704546</v>
       </c>
       <c r="J6">
-        <v>0.9108568395200449</v>
+        <v>0.8052378123863642</v>
       </c>
       <c r="K6">
-        <v>1.049792304360619</v>
+        <v>0.8195551260795449</v>
       </c>
       <c r="L6">
-        <v>0.865754705660288</v>
+        <v>0.8037475688068182</v>
       </c>
       <c r="M6">
-        <v>1.115598310427001</v>
+        <v>1.447291867093749</v>
       </c>
       <c r="N6">
-        <v>1.115598310427001</v>
+        <v>1.447291867093749</v>
       </c>
       <c r="O6">
-        <v>1.129040255963575</v>
+        <v>1.408716376964015</v>
       </c>
       <c r="P6">
-        <v>1.09366297507154</v>
+        <v>1.238046286755681</v>
       </c>
       <c r="Q6">
-        <v>1.09366297507154</v>
+        <v>1.238046286755681</v>
       </c>
       <c r="R6">
-        <v>1.08269530739381</v>
+        <v>1.133423496586647</v>
       </c>
       <c r="S6">
-        <v>1.08269530739381</v>
+        <v>1.133423496586647</v>
       </c>
       <c r="T6">
-        <v>1.024998596941497</v>
+        <v>1.097226629577083</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9989722233958594</v>
+        <v>1.19382811722222</v>
       </c>
       <c r="D7">
-        <v>1.00604779893712</v>
+        <v>0.9221591504407088</v>
       </c>
       <c r="E7">
-        <v>0.9992677283860051</v>
+        <v>0.8129215513102246</v>
       </c>
       <c r="F7">
-        <v>1.00604779893712</v>
+        <v>0.9221591504407088</v>
       </c>
       <c r="G7">
-        <v>0.9992677283860051</v>
+        <v>0.8129215513102246</v>
       </c>
       <c r="H7">
-        <v>0.9987182299546676</v>
+        <v>1.928388157203333</v>
       </c>
       <c r="I7">
-        <v>1.00151955653108</v>
+        <v>0.7194845193467189</v>
       </c>
       <c r="J7">
-        <v>0.9990300807027542</v>
+        <v>1.052043778603619</v>
       </c>
       <c r="K7">
-        <v>0.9992677283860051</v>
+        <v>0.8129215513102246</v>
       </c>
       <c r="L7">
-        <v>0.9989722233958594</v>
+        <v>1.19382811722222</v>
       </c>
       <c r="M7">
-        <v>1.00251001116649</v>
+        <v>1.057993633831464</v>
       </c>
       <c r="N7">
-        <v>1.00251001116649</v>
+        <v>1.057993633831464</v>
       </c>
       <c r="O7">
-        <v>1.002179859621353</v>
+        <v>0.9451572623365493</v>
       </c>
       <c r="P7">
-        <v>1.001429250239662</v>
+        <v>0.9763029396577177</v>
       </c>
       <c r="Q7">
-        <v>1.001429250239662</v>
+        <v>0.9763029396577177</v>
       </c>
       <c r="R7">
-        <v>1.000888869776247</v>
+        <v>0.9354575925708444</v>
       </c>
       <c r="S7">
-        <v>1.000888869776247</v>
+        <v>0.9354575925708444</v>
       </c>
       <c r="T7">
-        <v>1.000592602984581</v>
+        <v>1.104804212354471</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9972915753311027</v>
+        <v>1.188537314823157</v>
       </c>
       <c r="D8">
-        <v>1.014207680469971</v>
+        <v>0.9418479720296867</v>
       </c>
       <c r="E8">
-        <v>0.9988940818331773</v>
+        <v>0.8152802329331432</v>
       </c>
       <c r="F8">
-        <v>1.014207680469971</v>
+        <v>0.9418479720296867</v>
       </c>
       <c r="G8">
-        <v>0.9988940818331773</v>
+        <v>0.8152802329331432</v>
       </c>
       <c r="H8">
-        <v>0.9969090086037318</v>
+        <v>1.918793037201898</v>
       </c>
       <c r="I8">
-        <v>1.00356660105047</v>
+        <v>0.724705281272511</v>
       </c>
       <c r="J8">
-        <v>0.9976545335677479</v>
+        <v>1.048841773471372</v>
       </c>
       <c r="K8">
-        <v>0.9988940818331773</v>
+        <v>0.8152802329331432</v>
       </c>
       <c r="L8">
-        <v>0.9972915753311027</v>
+        <v>1.188537314823157</v>
       </c>
       <c r="M8">
-        <v>1.005749627900537</v>
+        <v>1.065192643426422</v>
       </c>
       <c r="N8">
-        <v>1.005749627900537</v>
+        <v>1.065192643426422</v>
       </c>
       <c r="O8">
-        <v>1.005021952283848</v>
+        <v>0.9516968560417851</v>
       </c>
       <c r="P8">
-        <v>1.003464445878084</v>
+        <v>0.9818885065953292</v>
       </c>
       <c r="Q8">
-        <v>1.003464445878084</v>
+        <v>0.9818885065953292</v>
       </c>
       <c r="R8">
-        <v>1.002321854866857</v>
+        <v>0.9402364381797828</v>
       </c>
       <c r="S8">
-        <v>1.002321854866857</v>
+        <v>0.9402364381797828</v>
       </c>
       <c r="T8">
-        <v>1.0014205801427</v>
+        <v>1.106334268621961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9963085097215743</v>
+        <v>1.18449713934864</v>
       </c>
       <c r="D9">
-        <v>1.017732998163203</v>
+        <v>0.9633613764852583</v>
       </c>
       <c r="E9">
-        <v>0.9994652713342531</v>
+        <v>0.8139734801317081</v>
       </c>
       <c r="F9">
-        <v>1.017732998163203</v>
+        <v>0.9633613764852583</v>
       </c>
       <c r="G9">
-        <v>0.9994652713342531</v>
+        <v>0.8139734801317081</v>
       </c>
       <c r="H9">
-        <v>0.9945027030350655</v>
+        <v>1.912986224824798</v>
       </c>
       <c r="I9">
-        <v>1.004679669120432</v>
+        <v>0.7297152416894015</v>
       </c>
       <c r="J9">
-        <v>0.9970157713431881</v>
+        <v>1.045698395644199</v>
       </c>
       <c r="K9">
-        <v>0.9994652713342531</v>
+        <v>0.8139734801317081</v>
       </c>
       <c r="L9">
-        <v>0.9963085097215743</v>
+        <v>1.18449713934864</v>
       </c>
       <c r="M9">
-        <v>1.007020753942388</v>
+        <v>1.073929257916949</v>
       </c>
       <c r="N9">
-        <v>1.007020753942388</v>
+        <v>1.073929257916949</v>
       </c>
       <c r="O9">
-        <v>1.00624039233507</v>
+        <v>0.9591912525077667</v>
       </c>
       <c r="P9">
-        <v>1.004502259739677</v>
+        <v>0.9872773319885355</v>
       </c>
       <c r="Q9">
-        <v>1.004502259739677</v>
+        <v>0.9872773319885355</v>
       </c>
       <c r="R9">
-        <v>1.003243012638321</v>
+        <v>0.9439513690243286</v>
       </c>
       <c r="S9">
-        <v>1.003243012638321</v>
+        <v>0.9439513690243286</v>
       </c>
       <c r="T9">
-        <v>1.001617487119619</v>
+        <v>1.108371976354001</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.99230867564364</v>
+        <v>1.171333809567343</v>
       </c>
       <c r="D10">
-        <v>1.040856449498886</v>
+        <v>0.9916777228405383</v>
       </c>
       <c r="E10">
-        <v>0.9975142033025718</v>
+        <v>0.8348259745377333</v>
       </c>
       <c r="F10">
-        <v>1.040856449498886</v>
+        <v>0.9916777228405383</v>
       </c>
       <c r="G10">
-        <v>0.9975142033025718</v>
+        <v>0.8348259745377333</v>
       </c>
       <c r="H10">
-        <v>0.9892472762326249</v>
+        <v>1.889368993501799</v>
       </c>
       <c r="I10">
-        <v>1.010184946723952</v>
+        <v>0.7344871032242833</v>
       </c>
       <c r="J10">
-        <v>0.993412281597173</v>
+        <v>1.041416456649487</v>
       </c>
       <c r="K10">
-        <v>0.9975142033025718</v>
+        <v>0.8348259745377333</v>
       </c>
       <c r="L10">
-        <v>0.99230867564364</v>
+        <v>1.171333809567343</v>
       </c>
       <c r="M10">
-        <v>1.016582562571263</v>
+        <v>1.081505766203941</v>
       </c>
       <c r="N10">
-        <v>1.016582562571263</v>
+        <v>1.081505766203941</v>
       </c>
       <c r="O10">
-        <v>1.014450023955493</v>
+        <v>0.965832878544055</v>
       </c>
       <c r="P10">
-        <v>1.010226442815033</v>
+        <v>0.9992791689818716</v>
       </c>
       <c r="Q10">
-        <v>1.010226442815033</v>
+        <v>0.9992791689818716</v>
       </c>
       <c r="R10">
-        <v>1.007048382936917</v>
+        <v>0.9581658703708371</v>
       </c>
       <c r="S10">
-        <v>1.007048382936917</v>
+        <v>0.9581658703708371</v>
       </c>
       <c r="T10">
-        <v>1.003920638833141</v>
+        <v>1.110518343386864</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9858096078349293</v>
+        <v>0.9750786531737905</v>
       </c>
       <c r="D11">
-        <v>1.06268403679827</v>
+        <v>1.063812384383186</v>
       </c>
       <c r="E11">
-        <v>0.9999651098574764</v>
+        <v>1.008083673823141</v>
       </c>
       <c r="F11">
-        <v>1.06268403679827</v>
+        <v>1.063812384383186</v>
       </c>
       <c r="G11">
-        <v>0.9999651098574764</v>
+        <v>1.008083673823141</v>
       </c>
       <c r="H11">
-        <v>0.9810872378089286</v>
+        <v>0.959113549443349</v>
       </c>
       <c r="I11">
-        <v>1.016694447237525</v>
+        <v>1.029092975019848</v>
       </c>
       <c r="J11">
-        <v>0.989050455333751</v>
+        <v>0.9840461929905662</v>
       </c>
       <c r="K11">
-        <v>0.9999651098574764</v>
+        <v>1.008083673823141</v>
       </c>
       <c r="L11">
-        <v>0.9858096078349293</v>
+        <v>0.9750786531737905</v>
       </c>
       <c r="M11">
-        <v>1.0242468223166</v>
+        <v>1.019445518778488</v>
       </c>
       <c r="N11">
-        <v>1.0242468223166</v>
+        <v>1.019445518778488</v>
       </c>
       <c r="O11">
-        <v>1.021729363956908</v>
+        <v>1.022661337525608</v>
       </c>
       <c r="P11">
-        <v>1.016152918163559</v>
+        <v>1.015658237126706</v>
       </c>
       <c r="Q11">
-        <v>1.016152918163559</v>
+        <v>1.015658237126706</v>
       </c>
       <c r="R11">
-        <v>1.012105966087038</v>
+        <v>1.013764596300815</v>
       </c>
       <c r="S11">
-        <v>1.012105966087038</v>
+        <v>1.013764596300815</v>
       </c>
       <c r="T11">
-        <v>1.005881815811813</v>
+        <v>1.003204571472313</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7841456195919567</v>
+        <v>0.9882528919540222</v>
       </c>
       <c r="D12">
-        <v>0.3862134170529795</v>
+        <v>1.031638638714241</v>
       </c>
       <c r="E12">
-        <v>1.823256695440804</v>
+        <v>1.004235338062502</v>
       </c>
       <c r="F12">
-        <v>0.3862134170529795</v>
+        <v>1.031638638714241</v>
       </c>
       <c r="G12">
-        <v>1.823256695440804</v>
+        <v>1.004235338062502</v>
       </c>
       <c r="H12">
-        <v>0.4366272723675221</v>
+        <v>0.9862051487647758</v>
       </c>
       <c r="I12">
-        <v>0.8424217582270386</v>
+        <v>1.012091375195018</v>
       </c>
       <c r="J12">
-        <v>1.094410835244078</v>
+        <v>0.9925027704254128</v>
       </c>
       <c r="K12">
-        <v>1.823256695440804</v>
+        <v>1.004235338062502</v>
       </c>
       <c r="L12">
-        <v>0.7841456195919567</v>
+        <v>0.9882528919540222</v>
       </c>
       <c r="M12">
-        <v>0.5851795183224682</v>
+        <v>1.009945765334132</v>
       </c>
       <c r="N12">
-        <v>0.5851795183224682</v>
+        <v>1.009945765334132</v>
       </c>
       <c r="O12">
-        <v>0.6709269316239915</v>
+        <v>1.010660968621094</v>
       </c>
       <c r="P12">
-        <v>0.9978719106952466</v>
+        <v>1.008042289576922</v>
       </c>
       <c r="Q12">
-        <v>0.9978719106952466</v>
+        <v>1.008042289576922</v>
       </c>
       <c r="R12">
-        <v>1.204218106881636</v>
+        <v>1.007090551698317</v>
       </c>
       <c r="S12">
-        <v>1.204218106881636</v>
+        <v>1.007090551698317</v>
       </c>
       <c r="T12">
-        <v>0.894512599654063</v>
+        <v>1.002487693852662</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.186105343260666</v>
+        <v>0.9570922059910381</v>
       </c>
       <c r="D13">
-        <v>1.039018288742478</v>
+        <v>1.104113020707562</v>
       </c>
       <c r="E13">
-        <v>0.653513301470888</v>
+        <v>1.022021927613431</v>
       </c>
       <c r="F13">
-        <v>1.039018288742478</v>
+        <v>1.104113020707562</v>
       </c>
       <c r="G13">
-        <v>0.653513301470888</v>
+        <v>1.022021927613431</v>
       </c>
       <c r="H13">
-        <v>1.283617992978145</v>
+        <v>0.9535840052061788</v>
       </c>
       <c r="I13">
-        <v>0.9589762362083106</v>
+        <v>1.038581576039692</v>
       </c>
       <c r="J13">
-        <v>1.027484489848742</v>
+        <v>0.9752555430457851</v>
       </c>
       <c r="K13">
-        <v>0.653513301470888</v>
+        <v>1.022021927613431</v>
       </c>
       <c r="L13">
-        <v>1.186105343260666</v>
+        <v>0.9570922059910381</v>
       </c>
       <c r="M13">
-        <v>1.112561816001572</v>
+        <v>1.0306026133493</v>
       </c>
       <c r="N13">
-        <v>1.112561816001572</v>
+        <v>1.0306026133493</v>
       </c>
       <c r="O13">
-        <v>1.061366622737151</v>
+        <v>1.033262267579431</v>
       </c>
       <c r="P13">
-        <v>0.9595456444913441</v>
+        <v>1.027742384770677</v>
       </c>
       <c r="Q13">
-        <v>0.9595456444913442</v>
+        <v>1.027742384770677</v>
       </c>
       <c r="R13">
-        <v>0.8830375587362301</v>
+        <v>1.026312270481366</v>
       </c>
       <c r="S13">
-        <v>0.8830375587362301</v>
+        <v>1.026312270481366</v>
       </c>
       <c r="T13">
-        <v>1.024785942084872</v>
+        <v>1.008441379767281</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.320078409666073</v>
+        <v>0.9307253987356661</v>
       </c>
       <c r="D14">
-        <v>0.381371271917975</v>
+        <v>1.182802629760608</v>
       </c>
       <c r="E14">
-        <v>0.7520861600358772</v>
+        <v>1.02284774831065</v>
       </c>
       <c r="F14">
-        <v>0.381371271917975</v>
+        <v>1.182802629760608</v>
       </c>
       <c r="G14">
-        <v>0.7520861600358772</v>
+        <v>1.02284774831065</v>
       </c>
       <c r="H14">
-        <v>1.604221700991157</v>
+        <v>0.895591199113828</v>
       </c>
       <c r="I14">
-        <v>0.6863087614103456</v>
+        <v>1.077696459180096</v>
       </c>
       <c r="J14">
-        <v>1.167465994453291</v>
+        <v>0.9560110234363496</v>
       </c>
       <c r="K14">
-        <v>0.7520861600358772</v>
+        <v>1.02284774831065</v>
       </c>
       <c r="L14">
-        <v>1.320078409666073</v>
+        <v>0.9307253987356661</v>
       </c>
       <c r="M14">
-        <v>0.8507248407920239</v>
+        <v>1.056764014248137</v>
       </c>
       <c r="N14">
-        <v>0.8507248407920239</v>
+        <v>1.056764014248137</v>
       </c>
       <c r="O14">
-        <v>0.7959194809981311</v>
+        <v>1.063741495892123</v>
       </c>
       <c r="P14">
-        <v>0.8178452805399751</v>
+        <v>1.045458592268975</v>
       </c>
       <c r="Q14">
-        <v>0.8178452805399751</v>
+        <v>1.045458592268975</v>
       </c>
       <c r="R14">
-        <v>0.8014055004139506</v>
+        <v>1.039805881279394</v>
       </c>
       <c r="S14">
-        <v>0.8014055004139506</v>
+        <v>1.039805881279394</v>
       </c>
       <c r="T14">
-        <v>0.9852553830791199</v>
+        <v>1.010945743089533</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.868430043618947</v>
+        <v>0.974296197666459</v>
       </c>
       <c r="D15">
-        <v>0.9779470090928963</v>
+        <v>1.065652091487269</v>
       </c>
       <c r="E15">
-        <v>1.299517487579263</v>
+        <v>1.009677850131384</v>
       </c>
       <c r="F15">
-        <v>0.9779470090928963</v>
+        <v>1.065652091487269</v>
       </c>
       <c r="G15">
-        <v>1.299517487579263</v>
+        <v>1.009677850131384</v>
       </c>
       <c r="H15">
-        <v>1.131824778943258</v>
+        <v>0.9621776901975018</v>
       </c>
       <c r="I15">
-        <v>0.9285479863510481</v>
+        <v>1.028106023773313</v>
       </c>
       <c r="J15">
-        <v>0.9859946765421506</v>
+        <v>0.9839422651769512</v>
       </c>
       <c r="K15">
-        <v>1.299517487579263</v>
+        <v>1.009677850131384</v>
       </c>
       <c r="L15">
-        <v>0.868430043618947</v>
+        <v>0.974296197666459</v>
       </c>
       <c r="M15">
-        <v>0.9231885263559216</v>
+        <v>1.019974144576864</v>
       </c>
       <c r="N15">
-        <v>0.9231885263559216</v>
+        <v>1.019974144576864</v>
       </c>
       <c r="O15">
-        <v>0.9249750130209637</v>
+        <v>1.02268477097568</v>
       </c>
       <c r="P15">
-        <v>1.048631513430369</v>
+        <v>1.016542046428371</v>
       </c>
       <c r="Q15">
-        <v>1.048631513430369</v>
+        <v>1.016542046428371</v>
       </c>
       <c r="R15">
-        <v>1.111353006967592</v>
+        <v>1.014825997354124</v>
       </c>
       <c r="S15">
-        <v>1.111353006967592</v>
+        <v>1.014825997354124</v>
       </c>
       <c r="T15">
-        <v>1.032043663687927</v>
+        <v>1.003975353072146</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.5314744974315894</v>
+        <v>0.9514014248817598</v>
       </c>
       <c r="D16">
-        <v>2.246500212875825</v>
+        <v>1.123897035372008</v>
       </c>
       <c r="E16">
-        <v>1.132351741095312</v>
+        <v>1.017286118577783</v>
       </c>
       <c r="F16">
-        <v>2.246500212875825</v>
+        <v>1.123897035372008</v>
       </c>
       <c r="G16">
-        <v>1.132351741095312</v>
+        <v>1.017286118577783</v>
       </c>
       <c r="H16">
-        <v>0.2614244704545782</v>
+        <v>0.9258221218428564</v>
       </c>
       <c r="I16">
-        <v>1.547928539462942</v>
+        <v>1.054285445223912</v>
       </c>
       <c r="J16">
-        <v>0.6963263980699606</v>
+        <v>0.9694195785885517</v>
       </c>
       <c r="K16">
-        <v>1.132351741095312</v>
+        <v>1.017286118577783</v>
       </c>
       <c r="L16">
-        <v>0.5314744974315894</v>
+        <v>0.9514014248817598</v>
       </c>
       <c r="M16">
-        <v>1.388987355153707</v>
+        <v>1.037649230126884</v>
       </c>
       <c r="N16">
-        <v>1.388987355153707</v>
+        <v>1.037649230126884</v>
       </c>
       <c r="O16">
-        <v>1.441967749923452</v>
+        <v>1.043194635159227</v>
       </c>
       <c r="P16">
-        <v>1.303442150467575</v>
+        <v>1.030861526277183</v>
       </c>
       <c r="Q16">
-        <v>1.303442150467575</v>
+        <v>1.030861526277183</v>
       </c>
       <c r="R16">
-        <v>1.260669548124509</v>
+        <v>1.027467674352333</v>
       </c>
       <c r="S16">
-        <v>1.260669548124509</v>
+        <v>1.027467674352333</v>
       </c>
       <c r="T16">
-        <v>1.069334309898368</v>
+        <v>1.007018620747812</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.6480528419957197</v>
+        <v>0.9062946803450808</v>
       </c>
       <c r="D17">
-        <v>2.054876813722774</v>
+        <v>1.244466477190183</v>
       </c>
       <c r="E17">
-        <v>1.039887411162746</v>
+        <v>1.033587464509557</v>
       </c>
       <c r="F17">
-        <v>2.054876813722774</v>
+        <v>1.244466477190183</v>
       </c>
       <c r="G17">
-        <v>1.039887411162746</v>
+        <v>1.033587464509557</v>
       </c>
       <c r="H17">
-        <v>0.4429138202612741</v>
+        <v>0.8612893442806046</v>
       </c>
       <c r="I17">
-        <v>1.442721248408719</v>
+        <v>1.103745617641294</v>
       </c>
       <c r="J17">
-        <v>0.7552063028209707</v>
+        <v>0.9406557176153538</v>
       </c>
       <c r="K17">
-        <v>1.039887411162746</v>
+        <v>1.033587464509557</v>
       </c>
       <c r="L17">
-        <v>0.6480528419957197</v>
+        <v>0.9062946803450808</v>
       </c>
       <c r="M17">
-        <v>1.351464827859247</v>
+        <v>1.075380578767632</v>
       </c>
       <c r="N17">
-        <v>1.351464827859247</v>
+        <v>1.075380578767632</v>
       </c>
       <c r="O17">
-        <v>1.381883634709071</v>
+        <v>1.084835591725519</v>
       </c>
       <c r="P17">
-        <v>1.247605688960413</v>
+        <v>1.061449540681607</v>
       </c>
       <c r="Q17">
-        <v>1.247605688960413</v>
+        <v>1.061449540681607</v>
       </c>
       <c r="R17">
-        <v>1.195676119510996</v>
+        <v>1.054484021638594</v>
       </c>
       <c r="S17">
-        <v>1.195676119510996</v>
+        <v>1.054484021638594</v>
       </c>
       <c r="T17">
-        <v>1.063943073062034</v>
+        <v>1.015006550263679</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.881128677677445</v>
+        <v>0.865754705660288</v>
       </c>
       <c r="D18">
-        <v>1.665005126417676</v>
+        <v>1.365441915193714</v>
       </c>
       <c r="E18">
-        <v>0.8582076072135825</v>
+        <v>1.049792304360619</v>
       </c>
       <c r="F18">
-        <v>1.665005126417676</v>
+        <v>1.365441915193714</v>
       </c>
       <c r="G18">
-        <v>0.8582076072135825</v>
+        <v>1.049792304360619</v>
       </c>
       <c r="H18">
-        <v>0.8054027441320195</v>
+        <v>0.8022216698775988</v>
       </c>
       <c r="I18">
-        <v>1.230956712193499</v>
+        <v>1.155924147036722</v>
       </c>
       <c r="J18">
-        <v>0.8737435576202341</v>
+        <v>0.9108568395200449</v>
       </c>
       <c r="K18">
-        <v>0.8582076072135825</v>
+        <v>1.049792304360619</v>
       </c>
       <c r="L18">
-        <v>0.881128677677445</v>
+        <v>0.865754705660288</v>
       </c>
       <c r="M18">
-        <v>1.273066902047561</v>
+        <v>1.115598310427001</v>
       </c>
       <c r="N18">
-        <v>1.273066902047561</v>
+        <v>1.115598310427001</v>
       </c>
       <c r="O18">
-        <v>1.259030172096207</v>
+        <v>1.129040255963575</v>
       </c>
       <c r="P18">
-        <v>1.134780470436235</v>
+        <v>1.09366297507154</v>
       </c>
       <c r="Q18">
-        <v>1.134780470436235</v>
+        <v>1.09366297507154</v>
       </c>
       <c r="R18">
-        <v>1.065637254630572</v>
+        <v>1.08269530739381</v>
       </c>
       <c r="S18">
-        <v>1.065637254630572</v>
+        <v>1.08269530739381</v>
       </c>
       <c r="T18">
-        <v>1.052407404209076</v>
+        <v>1.024998596941497</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8476421073386465</v>
+        <v>0.9989722233958594</v>
       </c>
       <c r="D19">
-        <v>1.845581869191943</v>
+        <v>1.00604779893712</v>
       </c>
       <c r="E19">
-        <v>0.8585016756410357</v>
+        <v>0.9992677283860051</v>
       </c>
       <c r="F19">
-        <v>1.845581869191943</v>
+        <v>1.00604779893712</v>
       </c>
       <c r="G19">
-        <v>0.8585016756410357</v>
+        <v>0.9992677283860051</v>
       </c>
       <c r="H19">
-        <v>0.8527832579274537</v>
+        <v>0.9987182299546676</v>
       </c>
       <c r="I19">
-        <v>1.241319418985587</v>
+        <v>1.00151955653108</v>
       </c>
       <c r="J19">
-        <v>0.8506218737527738</v>
+        <v>0.9990300807027542</v>
       </c>
       <c r="K19">
-        <v>0.8585016756410357</v>
+        <v>0.9992677283860051</v>
       </c>
       <c r="L19">
-        <v>0.8476421073386465</v>
+        <v>0.9989722233958594</v>
       </c>
       <c r="M19">
-        <v>1.346611988265294</v>
+        <v>1.00251001116649</v>
       </c>
       <c r="N19">
-        <v>1.346611988265294</v>
+        <v>1.00251001116649</v>
       </c>
       <c r="O19">
-        <v>1.311514465172058</v>
+        <v>1.002179859621353</v>
       </c>
       <c r="P19">
-        <v>1.183908550723875</v>
+        <v>1.001429250239662</v>
       </c>
       <c r="Q19">
-        <v>1.183908550723875</v>
+        <v>1.001429250239662</v>
       </c>
       <c r="R19">
-        <v>1.102556831953165</v>
+        <v>1.000888869776247</v>
       </c>
       <c r="S19">
-        <v>1.102556831953165</v>
+        <v>1.000888869776247</v>
       </c>
       <c r="T19">
-        <v>1.082741700472907</v>
+        <v>1.000592602984581</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000287594564137</v>
+        <v>0.9972915753311027</v>
       </c>
       <c r="D20">
-        <v>1.001199783745385</v>
+        <v>1.014207680469971</v>
       </c>
       <c r="E20">
-        <v>0.9992206348544996</v>
+        <v>0.9988940818331773</v>
       </c>
       <c r="F20">
-        <v>1.001199783745385</v>
+        <v>1.014207680469971</v>
       </c>
       <c r="G20">
-        <v>0.9992206348544996</v>
+        <v>0.9988940818331773</v>
       </c>
       <c r="H20">
-        <v>1.000731203297438</v>
+        <v>0.9969090086037318</v>
       </c>
       <c r="I20">
-        <v>0.9999629934562865</v>
+        <v>1.00356660105047</v>
       </c>
       <c r="J20">
-        <v>0.9999383791568315</v>
+        <v>0.9976545335677479</v>
       </c>
       <c r="K20">
-        <v>0.9992206348544996</v>
+        <v>0.9988940818331773</v>
       </c>
       <c r="L20">
-        <v>1.000287594564137</v>
+        <v>0.9972915753311027</v>
       </c>
       <c r="M20">
-        <v>1.000743689154761</v>
+        <v>1.005749627900537</v>
       </c>
       <c r="N20">
-        <v>1.000743689154761</v>
+        <v>1.005749627900537</v>
       </c>
       <c r="O20">
-        <v>1.00048345725527</v>
+        <v>1.005021952283848</v>
       </c>
       <c r="P20">
-        <v>1.000236004388007</v>
+        <v>1.003464445878084</v>
       </c>
       <c r="Q20">
-        <v>1.000236004388007</v>
+        <v>1.003464445878084</v>
       </c>
       <c r="R20">
-        <v>0.9999821620046303</v>
+        <v>1.002321854866857</v>
       </c>
       <c r="S20">
-        <v>0.9999821620046303</v>
+        <v>1.002321854866857</v>
       </c>
       <c r="T20">
-        <v>1.00022343151243</v>
+        <v>1.0014205801427</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9982256504808689</v>
+        <v>0.9963085097215743</v>
       </c>
       <c r="D21">
-        <v>1.007768945915994</v>
+        <v>1.017732998163203</v>
       </c>
       <c r="E21">
-        <v>0.9995797988130499</v>
+        <v>0.9994652713342531</v>
       </c>
       <c r="F21">
-        <v>1.007768945915994</v>
+        <v>1.017732998163203</v>
       </c>
       <c r="G21">
-        <v>0.9995797988130499</v>
+        <v>0.9994652713342531</v>
       </c>
       <c r="H21">
-        <v>0.9976229903493548</v>
+        <v>0.9945027030350655</v>
       </c>
       <c r="I21">
-        <v>1.00199107479559</v>
+        <v>1.004679669120432</v>
       </c>
       <c r="J21">
-        <v>0.9987702758859875</v>
+        <v>0.9970157713431881</v>
       </c>
       <c r="K21">
-        <v>0.9995797988130499</v>
+        <v>0.9994652713342531</v>
       </c>
       <c r="L21">
-        <v>0.9982256504808689</v>
+        <v>0.9963085097215743</v>
       </c>
       <c r="M21">
-        <v>1.002997298198431</v>
+        <v>1.007020753942388</v>
       </c>
       <c r="N21">
-        <v>1.002997298198431</v>
+        <v>1.007020753942388</v>
       </c>
       <c r="O21">
-        <v>1.002661890397484</v>
+        <v>1.00624039233507</v>
       </c>
       <c r="P21">
-        <v>1.001858131736638</v>
+        <v>1.004502259739677</v>
       </c>
       <c r="Q21">
-        <v>1.001858131736638</v>
+        <v>1.004502259739677</v>
       </c>
       <c r="R21">
-        <v>1.001288548505741</v>
+        <v>1.003243012638321</v>
       </c>
       <c r="S21">
-        <v>1.001288548505741</v>
+        <v>1.003243012638321</v>
       </c>
       <c r="T21">
-        <v>1.000659789373474</v>
+        <v>1.001617487119619</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9929078595209913</v>
+        <v>0.99230867564364</v>
       </c>
       <c r="D22">
-        <v>1.016453512814755</v>
+        <v>1.040856449498886</v>
       </c>
       <c r="E22">
-        <v>1.002417723924251</v>
+        <v>0.9975142033025718</v>
       </c>
       <c r="F22">
-        <v>1.016453512814755</v>
+        <v>1.040856449498886</v>
       </c>
       <c r="G22">
-        <v>1.002417723924251</v>
+        <v>0.9975142033025718</v>
       </c>
       <c r="H22">
-        <v>0.9885302137362426</v>
+        <v>0.9892472762326249</v>
       </c>
       <c r="I22">
-        <v>1.009027239547845</v>
+        <v>1.010184946723952</v>
       </c>
       <c r="J22">
-        <v>0.9949656746586839</v>
+        <v>0.993412281597173</v>
       </c>
       <c r="K22">
-        <v>1.002417723924251</v>
+        <v>0.9975142033025718</v>
       </c>
       <c r="L22">
-        <v>0.9929078595209913</v>
+        <v>0.99230867564364</v>
       </c>
       <c r="M22">
-        <v>1.004680686167873</v>
+        <v>1.016582562571263</v>
       </c>
       <c r="N22">
-        <v>1.004680686167873</v>
+        <v>1.016582562571263</v>
       </c>
       <c r="O22">
-        <v>1.00612953729453</v>
+        <v>1.014450023955493</v>
       </c>
       <c r="P22">
-        <v>1.003926365419999</v>
+        <v>1.010226442815033</v>
       </c>
       <c r="Q22">
-        <v>1.003926365419999</v>
+        <v>1.010226442815033</v>
       </c>
       <c r="R22">
-        <v>1.003549205046062</v>
+        <v>1.007048382936917</v>
       </c>
       <c r="S22">
-        <v>1.003549205046062</v>
+        <v>1.007048382936917</v>
       </c>
       <c r="T22">
-        <v>1.000717037367128</v>
+        <v>1.003920638833141</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9858096078349293</v>
+      </c>
+      <c r="D23">
+        <v>1.06268403679827</v>
+      </c>
+      <c r="E23">
+        <v>0.9999651098574764</v>
+      </c>
+      <c r="F23">
+        <v>1.06268403679827</v>
+      </c>
+      <c r="G23">
+        <v>0.9999651098574764</v>
+      </c>
+      <c r="H23">
+        <v>0.9810872378089286</v>
+      </c>
+      <c r="I23">
+        <v>1.016694447237525</v>
+      </c>
+      <c r="J23">
+        <v>0.989050455333751</v>
+      </c>
+      <c r="K23">
+        <v>0.9999651098574764</v>
+      </c>
+      <c r="L23">
+        <v>0.9858096078349293</v>
+      </c>
+      <c r="M23">
+        <v>1.0242468223166</v>
+      </c>
+      <c r="N23">
+        <v>1.0242468223166</v>
+      </c>
+      <c r="O23">
+        <v>1.021729363956908</v>
+      </c>
+      <c r="P23">
+        <v>1.016152918163559</v>
+      </c>
+      <c r="Q23">
+        <v>1.016152918163559</v>
+      </c>
+      <c r="R23">
+        <v>1.012105966087038</v>
+      </c>
+      <c r="S23">
+        <v>1.012105966087038</v>
+      </c>
+      <c r="T23">
+        <v>1.005881815811813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.7841456195919567</v>
+      </c>
+      <c r="D24">
+        <v>0.3862134170529795</v>
+      </c>
+      <c r="E24">
+        <v>1.823256695440804</v>
+      </c>
+      <c r="F24">
+        <v>0.3862134170529795</v>
+      </c>
+      <c r="G24">
+        <v>1.823256695440804</v>
+      </c>
+      <c r="H24">
+        <v>0.4366272723675221</v>
+      </c>
+      <c r="I24">
+        <v>0.8424217582270386</v>
+      </c>
+      <c r="J24">
+        <v>1.094410835244078</v>
+      </c>
+      <c r="K24">
+        <v>1.823256695440804</v>
+      </c>
+      <c r="L24">
+        <v>0.7841456195919567</v>
+      </c>
+      <c r="M24">
+        <v>0.5851795183224682</v>
+      </c>
+      <c r="N24">
+        <v>0.5851795183224682</v>
+      </c>
+      <c r="O24">
+        <v>0.6709269316239915</v>
+      </c>
+      <c r="P24">
+        <v>0.9978719106952466</v>
+      </c>
+      <c r="Q24">
+        <v>0.9978719106952466</v>
+      </c>
+      <c r="R24">
+        <v>1.204218106881636</v>
+      </c>
+      <c r="S24">
+        <v>1.204218106881636</v>
+      </c>
+      <c r="T24">
+        <v>0.894512599654063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.186105343260666</v>
+      </c>
+      <c r="D25">
+        <v>1.039018288742478</v>
+      </c>
+      <c r="E25">
+        <v>0.653513301470888</v>
+      </c>
+      <c r="F25">
+        <v>1.039018288742478</v>
+      </c>
+      <c r="G25">
+        <v>0.653513301470888</v>
+      </c>
+      <c r="H25">
+        <v>1.283617992978145</v>
+      </c>
+      <c r="I25">
+        <v>0.9589762362083106</v>
+      </c>
+      <c r="J25">
+        <v>1.027484489848742</v>
+      </c>
+      <c r="K25">
+        <v>0.653513301470888</v>
+      </c>
+      <c r="L25">
+        <v>1.186105343260666</v>
+      </c>
+      <c r="M25">
+        <v>1.112561816001572</v>
+      </c>
+      <c r="N25">
+        <v>1.112561816001572</v>
+      </c>
+      <c r="O25">
+        <v>1.061366622737151</v>
+      </c>
+      <c r="P25">
+        <v>0.9595456444913441</v>
+      </c>
+      <c r="Q25">
+        <v>0.9595456444913442</v>
+      </c>
+      <c r="R25">
+        <v>0.8830375587362301</v>
+      </c>
+      <c r="S25">
+        <v>0.8830375587362301</v>
+      </c>
+      <c r="T25">
+        <v>1.024785942084872</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.320078409666073</v>
+      </c>
+      <c r="D26">
+        <v>0.381371271917975</v>
+      </c>
+      <c r="E26">
+        <v>0.7520861600358772</v>
+      </c>
+      <c r="F26">
+        <v>0.381371271917975</v>
+      </c>
+      <c r="G26">
+        <v>0.7520861600358772</v>
+      </c>
+      <c r="H26">
+        <v>1.604221700991157</v>
+      </c>
+      <c r="I26">
+        <v>0.6863087614103456</v>
+      </c>
+      <c r="J26">
+        <v>1.167465994453291</v>
+      </c>
+      <c r="K26">
+        <v>0.7520861600358772</v>
+      </c>
+      <c r="L26">
+        <v>1.320078409666073</v>
+      </c>
+      <c r="M26">
+        <v>0.8507248407920239</v>
+      </c>
+      <c r="N26">
+        <v>0.8507248407920239</v>
+      </c>
+      <c r="O26">
+        <v>0.7959194809981311</v>
+      </c>
+      <c r="P26">
+        <v>0.8178452805399751</v>
+      </c>
+      <c r="Q26">
+        <v>0.8178452805399751</v>
+      </c>
+      <c r="R26">
+        <v>0.8014055004139506</v>
+      </c>
+      <c r="S26">
+        <v>0.8014055004139506</v>
+      </c>
+      <c r="T26">
+        <v>0.9852553830791199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.868430043618947</v>
+      </c>
+      <c r="D27">
+        <v>0.9779470090928963</v>
+      </c>
+      <c r="E27">
+        <v>1.299517487579263</v>
+      </c>
+      <c r="F27">
+        <v>0.9779470090928963</v>
+      </c>
+      <c r="G27">
+        <v>1.299517487579263</v>
+      </c>
+      <c r="H27">
+        <v>1.131824778943258</v>
+      </c>
+      <c r="I27">
+        <v>0.9285479863510481</v>
+      </c>
+      <c r="J27">
+        <v>0.9859946765421506</v>
+      </c>
+      <c r="K27">
+        <v>1.299517487579263</v>
+      </c>
+      <c r="L27">
+        <v>0.868430043618947</v>
+      </c>
+      <c r="M27">
+        <v>0.9231885263559216</v>
+      </c>
+      <c r="N27">
+        <v>0.9231885263559216</v>
+      </c>
+      <c r="O27">
+        <v>0.9249750130209637</v>
+      </c>
+      <c r="P27">
+        <v>1.048631513430369</v>
+      </c>
+      <c r="Q27">
+        <v>1.048631513430369</v>
+      </c>
+      <c r="R27">
+        <v>1.111353006967592</v>
+      </c>
+      <c r="S27">
+        <v>1.111353006967592</v>
+      </c>
+      <c r="T27">
+        <v>1.032043663687927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.5314744974315894</v>
+      </c>
+      <c r="D28">
+        <v>2.246500212875825</v>
+      </c>
+      <c r="E28">
+        <v>1.132351741095312</v>
+      </c>
+      <c r="F28">
+        <v>2.246500212875825</v>
+      </c>
+      <c r="G28">
+        <v>1.132351741095312</v>
+      </c>
+      <c r="H28">
+        <v>0.2614244704545782</v>
+      </c>
+      <c r="I28">
+        <v>1.547928539462942</v>
+      </c>
+      <c r="J28">
+        <v>0.6963263980699606</v>
+      </c>
+      <c r="K28">
+        <v>1.132351741095312</v>
+      </c>
+      <c r="L28">
+        <v>0.5314744974315894</v>
+      </c>
+      <c r="M28">
+        <v>1.388987355153707</v>
+      </c>
+      <c r="N28">
+        <v>1.388987355153707</v>
+      </c>
+      <c r="O28">
+        <v>1.441967749923452</v>
+      </c>
+      <c r="P28">
+        <v>1.303442150467575</v>
+      </c>
+      <c r="Q28">
+        <v>1.303442150467575</v>
+      </c>
+      <c r="R28">
+        <v>1.260669548124509</v>
+      </c>
+      <c r="S28">
+        <v>1.260669548124509</v>
+      </c>
+      <c r="T28">
+        <v>1.069334309898368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.6480528419957197</v>
+      </c>
+      <c r="D29">
+        <v>2.054876813722774</v>
+      </c>
+      <c r="E29">
+        <v>1.039887411162746</v>
+      </c>
+      <c r="F29">
+        <v>2.054876813722774</v>
+      </c>
+      <c r="G29">
+        <v>1.039887411162746</v>
+      </c>
+      <c r="H29">
+        <v>0.4429138202612741</v>
+      </c>
+      <c r="I29">
+        <v>1.442721248408719</v>
+      </c>
+      <c r="J29">
+        <v>0.7552063028209707</v>
+      </c>
+      <c r="K29">
+        <v>1.039887411162746</v>
+      </c>
+      <c r="L29">
+        <v>0.6480528419957197</v>
+      </c>
+      <c r="M29">
+        <v>1.351464827859247</v>
+      </c>
+      <c r="N29">
+        <v>1.351464827859247</v>
+      </c>
+      <c r="O29">
+        <v>1.381883634709071</v>
+      </c>
+      <c r="P29">
+        <v>1.247605688960413</v>
+      </c>
+      <c r="Q29">
+        <v>1.247605688960413</v>
+      </c>
+      <c r="R29">
+        <v>1.195676119510996</v>
+      </c>
+      <c r="S29">
+        <v>1.195676119510996</v>
+      </c>
+      <c r="T29">
+        <v>1.063943073062034</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.881128677677445</v>
+      </c>
+      <c r="D30">
+        <v>1.665005126417676</v>
+      </c>
+      <c r="E30">
+        <v>0.8582076072135825</v>
+      </c>
+      <c r="F30">
+        <v>1.665005126417676</v>
+      </c>
+      <c r="G30">
+        <v>0.8582076072135825</v>
+      </c>
+      <c r="H30">
+        <v>0.8054027441320195</v>
+      </c>
+      <c r="I30">
+        <v>1.230956712193499</v>
+      </c>
+      <c r="J30">
+        <v>0.8737435576202341</v>
+      </c>
+      <c r="K30">
+        <v>0.8582076072135825</v>
+      </c>
+      <c r="L30">
+        <v>0.881128677677445</v>
+      </c>
+      <c r="M30">
+        <v>1.273066902047561</v>
+      </c>
+      <c r="N30">
+        <v>1.273066902047561</v>
+      </c>
+      <c r="O30">
+        <v>1.259030172096207</v>
+      </c>
+      <c r="P30">
+        <v>1.134780470436235</v>
+      </c>
+      <c r="Q30">
+        <v>1.134780470436235</v>
+      </c>
+      <c r="R30">
+        <v>1.065637254630572</v>
+      </c>
+      <c r="S30">
+        <v>1.065637254630572</v>
+      </c>
+      <c r="T30">
+        <v>1.052407404209076</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8476421073386465</v>
+      </c>
+      <c r="D31">
+        <v>1.845581869191943</v>
+      </c>
+      <c r="E31">
+        <v>0.8585016756410357</v>
+      </c>
+      <c r="F31">
+        <v>1.845581869191943</v>
+      </c>
+      <c r="G31">
+        <v>0.8585016756410357</v>
+      </c>
+      <c r="H31">
+        <v>0.8527832579274537</v>
+      </c>
+      <c r="I31">
+        <v>1.241319418985587</v>
+      </c>
+      <c r="J31">
+        <v>0.8506218737527738</v>
+      </c>
+      <c r="K31">
+        <v>0.8585016756410357</v>
+      </c>
+      <c r="L31">
+        <v>0.8476421073386465</v>
+      </c>
+      <c r="M31">
+        <v>1.346611988265294</v>
+      </c>
+      <c r="N31">
+        <v>1.346611988265294</v>
+      </c>
+      <c r="O31">
+        <v>1.311514465172058</v>
+      </c>
+      <c r="P31">
+        <v>1.183908550723875</v>
+      </c>
+      <c r="Q31">
+        <v>1.183908550723875</v>
+      </c>
+      <c r="R31">
+        <v>1.102556831953165</v>
+      </c>
+      <c r="S31">
+        <v>1.102556831953165</v>
+      </c>
+      <c r="T31">
+        <v>1.082741700472907</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.414567309589041</v>
+      </c>
+      <c r="D32">
+        <v>2.407561988547946</v>
+      </c>
+      <c r="E32">
+        <v>1.255147524712329</v>
+      </c>
+      <c r="F32">
+        <v>2.407561988547946</v>
+      </c>
+      <c r="G32">
+        <v>1.255147524712329</v>
+      </c>
+      <c r="H32">
+        <v>0.08133587555616437</v>
+      </c>
+      <c r="I32">
+        <v>1.63628593109589</v>
+      </c>
+      <c r="J32">
+        <v>0.6439029484931508</v>
+      </c>
+      <c r="K32">
+        <v>1.255147524712329</v>
+      </c>
+      <c r="L32">
+        <v>0.414567309589041</v>
+      </c>
+      <c r="M32">
+        <v>1.411064649068494</v>
+      </c>
+      <c r="N32">
+        <v>1.411064649068494</v>
+      </c>
+      <c r="O32">
+        <v>1.486138409744292</v>
+      </c>
+      <c r="P32">
+        <v>1.359092274283105</v>
+      </c>
+      <c r="Q32">
+        <v>1.359092274283106</v>
+      </c>
+      <c r="R32">
+        <v>1.333106086890411</v>
+      </c>
+      <c r="S32">
+        <v>1.333106086890411</v>
+      </c>
+      <c r="T32">
+        <v>1.07313359633242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.095994567894737</v>
+      </c>
+      <c r="D33">
+        <v>1.342166235863157</v>
+      </c>
+      <c r="E33">
+        <v>0.8159869238421054</v>
+      </c>
+      <c r="F33">
+        <v>1.342166235863157</v>
+      </c>
+      <c r="G33">
+        <v>0.8159869238421054</v>
+      </c>
+      <c r="H33">
+        <v>1.739638943463158</v>
+      </c>
+      <c r="I33">
+        <v>0.8413760448421052</v>
+      </c>
+      <c r="J33">
+        <v>0.9822274357894737</v>
+      </c>
+      <c r="K33">
+        <v>0.8159869238421054</v>
+      </c>
+      <c r="L33">
+        <v>1.095994567894737</v>
+      </c>
+      <c r="M33">
+        <v>1.219080401878947</v>
+      </c>
+      <c r="N33">
+        <v>1.219080401878947</v>
+      </c>
+      <c r="O33">
+        <v>1.093178949533333</v>
+      </c>
+      <c r="P33">
+        <v>1.0847159092</v>
+      </c>
+      <c r="Q33">
+        <v>1.0847159092</v>
+      </c>
+      <c r="R33">
+        <v>1.017533662860526</v>
+      </c>
+      <c r="S33">
+        <v>1.017533662860526</v>
+      </c>
+      <c r="T33">
+        <v>1.136231691949123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.095994567894737</v>
+      </c>
+      <c r="D34">
+        <v>1.342166235863157</v>
+      </c>
+      <c r="E34">
+        <v>0.8159869238421054</v>
+      </c>
+      <c r="F34">
+        <v>1.342166235863157</v>
+      </c>
+      <c r="G34">
+        <v>0.8159869238421054</v>
+      </c>
+      <c r="H34">
+        <v>1.739638943463158</v>
+      </c>
+      <c r="I34">
+        <v>0.8413760448421052</v>
+      </c>
+      <c r="J34">
+        <v>0.9822274357894737</v>
+      </c>
+      <c r="K34">
+        <v>0.8159869238421054</v>
+      </c>
+      <c r="L34">
+        <v>1.095994567894737</v>
+      </c>
+      <c r="M34">
+        <v>1.219080401878947</v>
+      </c>
+      <c r="N34">
+        <v>1.219080401878947</v>
+      </c>
+      <c r="O34">
+        <v>1.093178949533333</v>
+      </c>
+      <c r="P34">
+        <v>1.0847159092</v>
+      </c>
+      <c r="Q34">
+        <v>1.0847159092</v>
+      </c>
+      <c r="R34">
+        <v>1.017533662860526</v>
+      </c>
+      <c r="S34">
+        <v>1.017533662860526</v>
+      </c>
+      <c r="T34">
+        <v>1.136231691949123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.5139014764337618</v>
+      </c>
+      <c r="D35">
+        <v>4.271406148972337</v>
+      </c>
+      <c r="E35">
+        <v>0.4384349566290215</v>
+      </c>
+      <c r="F35">
+        <v>4.271406148972337</v>
+      </c>
+      <c r="G35">
+        <v>0.4384349566290215</v>
+      </c>
+      <c r="H35">
+        <v>0.4065919477434349</v>
+      </c>
+      <c r="I35">
+        <v>1.821494922140581</v>
+      </c>
+      <c r="J35">
+        <v>0.4889899027752946</v>
+      </c>
+      <c r="K35">
+        <v>0.4384349566290215</v>
+      </c>
+      <c r="L35">
+        <v>0.5139014764337618</v>
+      </c>
+      <c r="M35">
+        <v>2.392653812703049</v>
+      </c>
+      <c r="N35">
+        <v>2.392653812703049</v>
+      </c>
+      <c r="O35">
+        <v>2.202267515848893</v>
+      </c>
+      <c r="P35">
+        <v>1.74124752734504</v>
+      </c>
+      <c r="Q35">
+        <v>1.74124752734504</v>
+      </c>
+      <c r="R35">
+        <v>1.415544384666035</v>
+      </c>
+      <c r="S35">
+        <v>1.415544384666035</v>
+      </c>
+      <c r="T35">
+        <v>1.323469892449072</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000287594564137</v>
+      </c>
+      <c r="D36">
+        <v>1.001199783745385</v>
+      </c>
+      <c r="E36">
+        <v>0.9992206348544996</v>
+      </c>
+      <c r="F36">
+        <v>1.001199783745385</v>
+      </c>
+      <c r="G36">
+        <v>0.9992206348544996</v>
+      </c>
+      <c r="H36">
+        <v>1.000731203297438</v>
+      </c>
+      <c r="I36">
+        <v>0.9999629934562865</v>
+      </c>
+      <c r="J36">
+        <v>0.9999383791568315</v>
+      </c>
+      <c r="K36">
+        <v>0.9992206348544996</v>
+      </c>
+      <c r="L36">
+        <v>1.000287594564137</v>
+      </c>
+      <c r="M36">
+        <v>1.000743689154761</v>
+      </c>
+      <c r="N36">
+        <v>1.000743689154761</v>
+      </c>
+      <c r="O36">
+        <v>1.00048345725527</v>
+      </c>
+      <c r="P36">
+        <v>1.000236004388007</v>
+      </c>
+      <c r="Q36">
+        <v>1.000236004388007</v>
+      </c>
+      <c r="R36">
+        <v>0.9999821620046303</v>
+      </c>
+      <c r="S36">
+        <v>0.9999821620046303</v>
+      </c>
+      <c r="T36">
+        <v>1.00022343151243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9982256504808689</v>
+      </c>
+      <c r="D37">
+        <v>1.007768945915994</v>
+      </c>
+      <c r="E37">
+        <v>0.9995797988130499</v>
+      </c>
+      <c r="F37">
+        <v>1.007768945915994</v>
+      </c>
+      <c r="G37">
+        <v>0.9995797988130499</v>
+      </c>
+      <c r="H37">
+        <v>0.9976229903493548</v>
+      </c>
+      <c r="I37">
+        <v>1.00199107479559</v>
+      </c>
+      <c r="J37">
+        <v>0.9987702758859875</v>
+      </c>
+      <c r="K37">
+        <v>0.9995797988130499</v>
+      </c>
+      <c r="L37">
+        <v>0.9982256504808689</v>
+      </c>
+      <c r="M37">
+        <v>1.002997298198431</v>
+      </c>
+      <c r="N37">
+        <v>1.002997298198431</v>
+      </c>
+      <c r="O37">
+        <v>1.002661890397484</v>
+      </c>
+      <c r="P37">
+        <v>1.001858131736638</v>
+      </c>
+      <c r="Q37">
+        <v>1.001858131736638</v>
+      </c>
+      <c r="R37">
+        <v>1.001288548505741</v>
+      </c>
+      <c r="S37">
+        <v>1.001288548505741</v>
+      </c>
+      <c r="T37">
+        <v>1.000659789373474</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9929078595209913</v>
+      </c>
+      <c r="D38">
+        <v>1.016453512814755</v>
+      </c>
+      <c r="E38">
+        <v>1.002417723924251</v>
+      </c>
+      <c r="F38">
+        <v>1.016453512814755</v>
+      </c>
+      <c r="G38">
+        <v>1.002417723924251</v>
+      </c>
+      <c r="H38">
+        <v>0.9885302137362426</v>
+      </c>
+      <c r="I38">
+        <v>1.009027239547845</v>
+      </c>
+      <c r="J38">
+        <v>0.9949656746586839</v>
+      </c>
+      <c r="K38">
+        <v>1.002417723924251</v>
+      </c>
+      <c r="L38">
+        <v>0.9929078595209913</v>
+      </c>
+      <c r="M38">
+        <v>1.004680686167873</v>
+      </c>
+      <c r="N38">
+        <v>1.004680686167873</v>
+      </c>
+      <c r="O38">
+        <v>1.00612953729453</v>
+      </c>
+      <c r="P38">
+        <v>1.003926365419999</v>
+      </c>
+      <c r="Q38">
+        <v>1.003926365419999</v>
+      </c>
+      <c r="R38">
+        <v>1.003549205046062</v>
+      </c>
+      <c r="S38">
+        <v>1.003549205046062</v>
+      </c>
+      <c r="T38">
+        <v>1.000717037367128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.981839738064384</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.043499468143434</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.007658835210097</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.043499468143434</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.007658835210097</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.971147457381268</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.02062361359641</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9885126682138657</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.007658835210097</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.981839738064384</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.012669603103909</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.012669603103909</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.015320939934743</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.010999347139306</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.010999347139305</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.010164219157003</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.010164219157003</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.002213630101576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9673218771989134</v>
+      </c>
+      <c r="D40">
+        <v>0.8683684132755506</v>
+      </c>
+      <c r="E40">
+        <v>1.193244608897373</v>
+      </c>
+      <c r="F40">
+        <v>0.8683684132755506</v>
+      </c>
+      <c r="G40">
+        <v>1.193244608897373</v>
+      </c>
+      <c r="H40">
+        <v>0.9643700127566426</v>
+      </c>
+      <c r="I40">
+        <v>0.9259373915567527</v>
+      </c>
+      <c r="J40">
+        <v>1.026809331528882</v>
+      </c>
+      <c r="K40">
+        <v>1.193244608897373</v>
+      </c>
+      <c r="L40">
+        <v>0.9673218771989134</v>
+      </c>
+      <c r="M40">
+        <v>0.917845145237232</v>
+      </c>
+      <c r="N40">
+        <v>0.917845145237232</v>
+      </c>
+      <c r="O40">
+        <v>0.9205425606770722</v>
+      </c>
+      <c r="P40">
+        <v>1.009644966457279</v>
+      </c>
+      <c r="Q40">
+        <v>1.009644966457279</v>
+      </c>
+      <c r="R40">
+        <v>1.055544877067302</v>
+      </c>
+      <c r="S40">
+        <v>1.055544877067302</v>
+      </c>
+      <c r="T40">
+        <v>0.991008605869019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9786839846527914</v>
+      </c>
+      <c r="D41">
+        <v>0.975591729148252</v>
+      </c>
+      <c r="E41">
+        <v>1.070037744038745</v>
+      </c>
+      <c r="F41">
+        <v>0.975591729148252</v>
+      </c>
+      <c r="G41">
+        <v>1.070037744038745</v>
+      </c>
+      <c r="H41">
+        <v>0.8823555633424547</v>
+      </c>
+      <c r="I41">
+        <v>1.00732385855381</v>
+      </c>
+      <c r="J41">
+        <v>1.002923788295638</v>
+      </c>
+      <c r="K41">
+        <v>1.070037744038745</v>
+      </c>
+      <c r="L41">
+        <v>0.9786839846527914</v>
+      </c>
+      <c r="M41">
+        <v>0.9771378569005217</v>
+      </c>
+      <c r="N41">
+        <v>0.9771378569005217</v>
+      </c>
+      <c r="O41">
+        <v>0.9871998574516178</v>
+      </c>
+      <c r="P41">
+        <v>1.008104485946596</v>
+      </c>
+      <c r="Q41">
+        <v>1.008104485946596</v>
+      </c>
+      <c r="R41">
+        <v>1.023587800469634</v>
+      </c>
+      <c r="S41">
+        <v>1.023587800469634</v>
+      </c>
+      <c r="T41">
+        <v>0.9861527780052821</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.7697224027410711</v>
+      </c>
+      <c r="D42">
+        <v>1.579181798084399</v>
+      </c>
+      <c r="E42">
+        <v>0.99316152120654</v>
+      </c>
+      <c r="F42">
+        <v>1.579181798084399</v>
+      </c>
+      <c r="G42">
+        <v>0.99316152120654</v>
+      </c>
+      <c r="H42">
+        <v>0.4612667484013276</v>
+      </c>
+      <c r="I42">
+        <v>1.368144334640319</v>
+      </c>
+      <c r="J42">
+        <v>0.8264752278881828</v>
+      </c>
+      <c r="K42">
+        <v>0.99316152120654</v>
+      </c>
+      <c r="L42">
+        <v>0.7697224027410711</v>
+      </c>
+      <c r="M42">
+        <v>1.174452100412735</v>
+      </c>
+      <c r="N42">
+        <v>1.174452100412735</v>
+      </c>
+      <c r="O42">
+        <v>1.239016178488596</v>
+      </c>
+      <c r="P42">
+        <v>1.114021907344003</v>
+      </c>
+      <c r="Q42">
+        <v>1.114021907344003</v>
+      </c>
+      <c r="R42">
+        <v>1.083806810809637</v>
+      </c>
+      <c r="S42">
+        <v>1.083806810809637</v>
+      </c>
+      <c r="T42">
+        <v>0.9996586721603066</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,36 +85,36 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +122,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.009677850131384</v>
+        <v>0.9972915753311027</v>
       </c>
       <c r="D3">
-        <v>1.065652091487269</v>
+        <v>1.014207680469971</v>
       </c>
       <c r="E3">
-        <v>0.974296197666459</v>
+        <v>0.9988940818331773</v>
       </c>
       <c r="F3">
-        <v>1.009677850131384</v>
+        <v>1.014207680469971</v>
       </c>
       <c r="G3">
-        <v>0.9621776901975018</v>
+        <v>0.9988940818331773</v>
       </c>
       <c r="H3">
-        <v>1.028106023773313</v>
+        <v>0.9969090086037318</v>
       </c>
       <c r="I3">
-        <v>0.9839422651769505</v>
+        <v>1.00356660105047</v>
       </c>
       <c r="J3">
-        <v>1.065652091487269</v>
+        <v>0.9976545335677479</v>
       </c>
       <c r="K3">
-        <v>1.009677850131384</v>
+        <v>0.9988940818331773</v>
       </c>
       <c r="L3">
-        <v>0.974296197666459</v>
+        <v>0.9972915753311027</v>
       </c>
       <c r="M3">
-        <v>1.019974144576864</v>
+        <v>1.005749627900537</v>
       </c>
       <c r="N3">
-        <v>1.019974144576864</v>
+        <v>1.005749627900537</v>
       </c>
       <c r="O3">
-        <v>1.02268477097568</v>
+        <v>1.005021952283848</v>
       </c>
       <c r="P3">
-        <v>1.016542046428371</v>
+        <v>1.003464445878084</v>
       </c>
       <c r="Q3">
-        <v>1.016542046428371</v>
+        <v>1.003464445878084</v>
       </c>
       <c r="R3">
-        <v>1.014825997354124</v>
+        <v>1.002321854866857</v>
       </c>
       <c r="S3">
-        <v>1.014825997354124</v>
+        <v>1.002321854866857</v>
       </c>
       <c r="T3">
-        <v>1.003975353072146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.0014205801427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.017286118577783</v>
+        <v>0.9673218771989134</v>
       </c>
       <c r="D4">
-        <v>1.123897035372008</v>
+        <v>0.8683684132755506</v>
       </c>
       <c r="E4">
-        <v>0.9514014248817598</v>
+        <v>1.193244608897373</v>
       </c>
       <c r="F4">
-        <v>1.017286118577783</v>
+        <v>0.8683684132755506</v>
       </c>
       <c r="G4">
-        <v>0.9258221218428564</v>
+        <v>1.193244608897373</v>
       </c>
       <c r="H4">
-        <v>1.054285445223912</v>
+        <v>0.9643700127566426</v>
       </c>
       <c r="I4">
-        <v>0.9694195785885517</v>
+        <v>0.9259373915567527</v>
       </c>
       <c r="J4">
-        <v>1.123897035372008</v>
+        <v>1.026809331528882</v>
       </c>
       <c r="K4">
-        <v>1.017286118577783</v>
+        <v>1.193244608897373</v>
       </c>
       <c r="L4">
-        <v>0.9514014248817598</v>
+        <v>0.9673218771989134</v>
       </c>
       <c r="M4">
-        <v>1.037649230126884</v>
+        <v>0.917845145237232</v>
       </c>
       <c r="N4">
-        <v>1.037649230126884</v>
+        <v>0.917845145237232</v>
       </c>
       <c r="O4">
-        <v>1.043194635159227</v>
+        <v>0.9205425606770722</v>
       </c>
       <c r="P4">
-        <v>1.030861526277183</v>
+        <v>1.009644966457279</v>
       </c>
       <c r="Q4">
-        <v>1.030861526277183</v>
+        <v>1.009644966457279</v>
       </c>
       <c r="R4">
-        <v>1.027467674352333</v>
+        <v>1.055544877067302</v>
       </c>
       <c r="S4">
-        <v>1.027467674352333</v>
+        <v>1.055544877067302</v>
       </c>
       <c r="T4">
-        <v>1.007018620747812</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.991008605869019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.033587464509557</v>
+        <v>0.8563186802017255</v>
       </c>
       <c r="D5">
-        <v>1.244466477190183</v>
+        <v>1.810818290925788</v>
       </c>
       <c r="E5">
-        <v>0.9062946803450808</v>
+        <v>0.8405780694704599</v>
       </c>
       <c r="F5">
-        <v>1.033587464509557</v>
+        <v>1.810818290925788</v>
       </c>
       <c r="G5">
-        <v>0.8612893442806046</v>
+        <v>0.8405780694704599</v>
       </c>
       <c r="H5">
-        <v>1.103745617641294</v>
+        <v>0.7835222552246446</v>
       </c>
       <c r="I5">
-        <v>0.9406557176153538</v>
+        <v>1.265534963316994</v>
       </c>
       <c r="J5">
-        <v>1.244466477190183</v>
+        <v>0.8504474434365958</v>
       </c>
       <c r="K5">
-        <v>1.033587464509557</v>
+        <v>0.8405780694704599</v>
       </c>
       <c r="L5">
-        <v>0.9062946803450808</v>
+        <v>0.8563186802017255</v>
       </c>
       <c r="M5">
-        <v>1.075380578767632</v>
+        <v>1.333568485563757</v>
       </c>
       <c r="N5">
-        <v>1.075380578767632</v>
+        <v>1.333568485563757</v>
       </c>
       <c r="O5">
-        <v>1.084835591725519</v>
+        <v>1.310890644814836</v>
       </c>
       <c r="P5">
-        <v>1.061449540681607</v>
+        <v>1.169238346865991</v>
       </c>
       <c r="Q5">
-        <v>1.061449540681607</v>
+        <v>1.169238346865991</v>
       </c>
       <c r="R5">
-        <v>1.054484021638594</v>
+        <v>1.087073277517108</v>
       </c>
       <c r="S5">
-        <v>1.054484021638594</v>
+        <v>1.087073277517108</v>
       </c>
       <c r="T5">
-        <v>1.015006550263679</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.067869950429368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.049792304360619</v>
+        <v>0.5139014764337618</v>
       </c>
       <c r="D6">
-        <v>1.365441915193714</v>
+        <v>4.271406148972337</v>
       </c>
       <c r="E6">
-        <v>0.865754705660288</v>
+        <v>0.4384349566290215</v>
       </c>
       <c r="F6">
-        <v>1.049792304360619</v>
+        <v>4.271406148972337</v>
       </c>
       <c r="G6">
-        <v>0.8022216698775988</v>
+        <v>0.4384349566290215</v>
       </c>
       <c r="H6">
-        <v>1.155924147036722</v>
+        <v>0.4065919477434349</v>
       </c>
       <c r="I6">
-        <v>0.910856839520045</v>
+        <v>1.821494922140581</v>
       </c>
       <c r="J6">
-        <v>1.365441915193714</v>
+        <v>0.4889899027752946</v>
       </c>
       <c r="K6">
-        <v>1.049792304360619</v>
+        <v>0.4384349566290215</v>
       </c>
       <c r="L6">
-        <v>0.865754705660288</v>
+        <v>0.5139014764337618</v>
       </c>
       <c r="M6">
-        <v>1.115598310427001</v>
+        <v>2.392653812703049</v>
       </c>
       <c r="N6">
-        <v>1.115598310427001</v>
+        <v>2.392653812703049</v>
       </c>
       <c r="O6">
-        <v>1.129040255963574</v>
+        <v>2.202267515848893</v>
       </c>
       <c r="P6">
-        <v>1.09366297507154</v>
+        <v>1.74124752734504</v>
       </c>
       <c r="Q6">
-        <v>1.09366297507154</v>
+        <v>1.74124752734504</v>
       </c>
       <c r="R6">
-        <v>1.08269530739381</v>
+        <v>1.415544384666035</v>
       </c>
       <c r="S6">
-        <v>1.08269530739381</v>
+        <v>1.415544384666035</v>
       </c>
       <c r="T6">
-        <v>1.024998596941498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.323469892449072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9992677283860044</v>
+        <v>0.9750786531737905</v>
       </c>
       <c r="D7">
-        <v>1.00604779893712</v>
+        <v>1.063812384383186</v>
       </c>
       <c r="E7">
-        <v>0.998972223395859</v>
+        <v>1.008083673823141</v>
       </c>
       <c r="F7">
-        <v>0.9992677283860044</v>
+        <v>1.063812384383186</v>
       </c>
       <c r="G7">
-        <v>0.9987182299546676</v>
+        <v>1.008083673823141</v>
       </c>
       <c r="H7">
-        <v>1.001519556531079</v>
+        <v>0.959113549443349</v>
       </c>
       <c r="I7">
-        <v>0.9990300807027545</v>
+        <v>1.029092975019848</v>
       </c>
       <c r="J7">
-        <v>1.00604779893712</v>
+        <v>0.9840461929905662</v>
       </c>
       <c r="K7">
-        <v>0.9992677283860044</v>
+        <v>1.008083673823141</v>
       </c>
       <c r="L7">
-        <v>0.998972223395859</v>
+        <v>0.9750786531737905</v>
       </c>
       <c r="M7">
-        <v>1.00251001116649</v>
+        <v>1.019445518778488</v>
       </c>
       <c r="N7">
-        <v>1.00251001116649</v>
+        <v>1.019445518778488</v>
       </c>
       <c r="O7">
-        <v>1.002179859621353</v>
+        <v>1.022661337525608</v>
       </c>
       <c r="P7">
-        <v>1.001429250239661</v>
+        <v>1.015658237126706</v>
       </c>
       <c r="Q7">
-        <v>1.001429250239661</v>
+        <v>1.015658237126706</v>
       </c>
       <c r="R7">
-        <v>1.000888869776247</v>
+        <v>1.013764596300815</v>
       </c>
       <c r="S7">
-        <v>1.000888869776247</v>
+        <v>1.013764596300815</v>
       </c>
       <c r="T7">
-        <v>1.000592602984581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.003204571472313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9988940818331777</v>
+        <v>0.9982256504808689</v>
       </c>
       <c r="D8">
-        <v>1.01420768046997</v>
+        <v>1.007768945915994</v>
       </c>
       <c r="E8">
-        <v>0.997291575331103</v>
+        <v>0.9995797988130499</v>
       </c>
       <c r="F8">
-        <v>0.9988940818331777</v>
+        <v>1.007768945915994</v>
       </c>
       <c r="G8">
-        <v>0.9969090086037312</v>
+        <v>0.9995797988130499</v>
       </c>
       <c r="H8">
-        <v>1.003566601050469</v>
+        <v>0.9976229903493548</v>
       </c>
       <c r="I8">
-        <v>0.9976545335677475</v>
+        <v>1.00199107479559</v>
       </c>
       <c r="J8">
-        <v>1.01420768046997</v>
+        <v>0.9987702758859875</v>
       </c>
       <c r="K8">
-        <v>0.9988940818331777</v>
+        <v>0.9995797988130499</v>
       </c>
       <c r="L8">
-        <v>0.997291575331103</v>
+        <v>0.9982256504808689</v>
       </c>
       <c r="M8">
-        <v>1.005749627900536</v>
+        <v>1.002997298198431</v>
       </c>
       <c r="N8">
-        <v>1.005749627900536</v>
+        <v>1.002997298198431</v>
       </c>
       <c r="O8">
-        <v>1.005021952283847</v>
+        <v>1.002661890397484</v>
       </c>
       <c r="P8">
-        <v>1.003464445878083</v>
+        <v>1.001858131736638</v>
       </c>
       <c r="Q8">
-        <v>1.003464445878083</v>
+        <v>1.001858131736638</v>
       </c>
       <c r="R8">
-        <v>1.002321854866857</v>
+        <v>1.001288548505741</v>
       </c>
       <c r="S8">
-        <v>1.002321854866857</v>
+        <v>1.001288548505741</v>
       </c>
       <c r="T8">
-        <v>1.0014205801427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000659789373474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9994652713342531</v>
+        <v>0.9514014248817598</v>
       </c>
       <c r="D9">
-        <v>1.017732998163203</v>
+        <v>1.123897035372008</v>
       </c>
       <c r="E9">
-        <v>0.9963085097215743</v>
+        <v>1.017286118577783</v>
       </c>
       <c r="F9">
-        <v>0.9994652713342531</v>
+        <v>1.123897035372008</v>
       </c>
       <c r="G9">
-        <v>0.9945027030350654</v>
+        <v>1.017286118577783</v>
       </c>
       <c r="H9">
-        <v>1.004679669120432</v>
+        <v>0.9258221218428564</v>
       </c>
       <c r="I9">
-        <v>0.9970157713431881</v>
+        <v>1.054285445223912</v>
       </c>
       <c r="J9">
-        <v>1.017732998163203</v>
+        <v>0.9694195785885517</v>
       </c>
       <c r="K9">
-        <v>0.9994652713342531</v>
+        <v>1.017286118577783</v>
       </c>
       <c r="L9">
-        <v>0.9963085097215743</v>
+        <v>0.9514014248817598</v>
       </c>
       <c r="M9">
-        <v>1.007020753942388</v>
+        <v>1.037649230126884</v>
       </c>
       <c r="N9">
-        <v>1.007020753942388</v>
+        <v>1.037649230126884</v>
       </c>
       <c r="O9">
-        <v>1.00624039233507</v>
+        <v>1.043194635159227</v>
       </c>
       <c r="P9">
-        <v>1.004502259739677</v>
+        <v>1.030861526277183</v>
       </c>
       <c r="Q9">
-        <v>1.004502259739677</v>
+        <v>1.030861526277183</v>
       </c>
       <c r="R9">
-        <v>1.003243012638321</v>
+        <v>1.027467674352333</v>
       </c>
       <c r="S9">
-        <v>1.003243012638321</v>
+        <v>1.027467674352333</v>
       </c>
       <c r="T9">
-        <v>1.001617487119619</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.007018620747812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9975142033025718</v>
+        <v>0.4935395774349269</v>
       </c>
       <c r="D10">
-        <v>1.040856449498886</v>
+        <v>4.365451789680079</v>
       </c>
       <c r="E10">
-        <v>0.9923086756436403</v>
+        <v>0.4432803623178325</v>
       </c>
       <c r="F10">
-        <v>0.9975142033025718</v>
+        <v>4.365451789680079</v>
       </c>
       <c r="G10">
-        <v>0.9892472762326249</v>
+        <v>0.4432803623178325</v>
       </c>
       <c r="H10">
-        <v>1.010184946723952</v>
+        <v>0.4192348238935361</v>
       </c>
       <c r="I10">
-        <v>0.993412281597173</v>
+        <v>1.830018023504524</v>
       </c>
       <c r="J10">
-        <v>1.040856449498886</v>
+        <v>0.4761496841610014</v>
       </c>
       <c r="K10">
-        <v>0.9975142033025718</v>
+        <v>0.4432803623178325</v>
       </c>
       <c r="L10">
-        <v>0.9923086756436403</v>
+        <v>0.4935395774349269</v>
       </c>
       <c r="M10">
-        <v>1.016582562571263</v>
+        <v>2.429495683557503</v>
       </c>
       <c r="N10">
-        <v>1.016582562571263</v>
+        <v>2.429495683557503</v>
       </c>
       <c r="O10">
-        <v>1.014450023955493</v>
+        <v>2.229669796873177</v>
       </c>
       <c r="P10">
-        <v>1.010226442815033</v>
+        <v>1.767423909810946</v>
       </c>
       <c r="Q10">
-        <v>1.010226442815033</v>
+        <v>1.767423909810946</v>
       </c>
       <c r="R10">
-        <v>1.007048382936917</v>
+        <v>1.436388022937668</v>
       </c>
       <c r="S10">
-        <v>1.007048382936917</v>
+        <v>1.436388022937668</v>
       </c>
       <c r="T10">
-        <v>1.003920638833141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.337945710165316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999651098574764</v>
+        <v>0.9098745544558448</v>
       </c>
       <c r="D11">
-        <v>1.06268403679827</v>
+        <v>0.9258926402114661</v>
       </c>
       <c r="E11">
-        <v>0.9858096078349293</v>
+        <v>1.252685773956712</v>
       </c>
       <c r="F11">
-        <v>0.9999651098574764</v>
+        <v>0.9258926402114661</v>
       </c>
       <c r="G11">
-        <v>0.9810872378089289</v>
+        <v>1.252685773956712</v>
       </c>
       <c r="H11">
-        <v>1.016694447237525</v>
+        <v>0.7164331963700852</v>
       </c>
       <c r="I11">
-        <v>0.989050455333751</v>
+        <v>1.009151722010942</v>
       </c>
       <c r="J11">
-        <v>1.06268403679827</v>
+        <v>1.000383986692722</v>
       </c>
       <c r="K11">
-        <v>0.9999651098574764</v>
+        <v>1.252685773956712</v>
       </c>
       <c r="L11">
-        <v>0.9858096078349293</v>
+        <v>0.9098745544558448</v>
       </c>
       <c r="M11">
-        <v>1.0242468223166</v>
+        <v>0.9178835973336554</v>
       </c>
       <c r="N11">
-        <v>1.0242468223166</v>
+        <v>0.9178835973336554</v>
       </c>
       <c r="O11">
-        <v>1.021729363956908</v>
+        <v>0.9483063055594178</v>
       </c>
       <c r="P11">
-        <v>1.016152918163559</v>
+        <v>1.029484322874674</v>
       </c>
       <c r="Q11">
-        <v>1.016152918163559</v>
+        <v>1.029484322874674</v>
       </c>
       <c r="R11">
-        <v>1.012105966087038</v>
+        <v>1.085284685645184</v>
       </c>
       <c r="S11">
-        <v>1.012105966087038</v>
+        <v>1.085284685645184</v>
       </c>
       <c r="T11">
-        <v>1.005881815811813</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.969070312282962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.823256695440803</v>
+        <v>0.8413248410421047</v>
       </c>
       <c r="D12">
-        <v>0.3862134170529798</v>
+        <v>1.977295888559785</v>
       </c>
       <c r="E12">
-        <v>0.7841456195919565</v>
+        <v>0.8216614847842124</v>
       </c>
       <c r="F12">
-        <v>1.823256695440803</v>
+        <v>1.977295888559785</v>
       </c>
       <c r="G12">
-        <v>0.4366272723675221</v>
+        <v>0.8216614847842124</v>
       </c>
       <c r="H12">
-        <v>0.8424217582270387</v>
+        <v>0.8621178198347381</v>
       </c>
       <c r="I12">
-        <v>1.094410835244078</v>
+        <v>1.261742296744206</v>
       </c>
       <c r="J12">
-        <v>0.3862134170529798</v>
+        <v>0.8345108156947353</v>
       </c>
       <c r="K12">
-        <v>1.823256695440803</v>
+        <v>0.8216614847842124</v>
       </c>
       <c r="L12">
-        <v>0.7841456195919565</v>
+        <v>0.8413248410421047</v>
       </c>
       <c r="M12">
-        <v>0.5851795183224682</v>
+        <v>1.409310364800945</v>
       </c>
       <c r="N12">
-        <v>0.5851795183224682</v>
+        <v>1.409310364800945</v>
       </c>
       <c r="O12">
-        <v>0.6709269316239918</v>
+        <v>1.360121008782032</v>
       </c>
       <c r="P12">
-        <v>0.9978719106952466</v>
+        <v>1.213427404795367</v>
       </c>
       <c r="Q12">
-        <v>0.9978719106952464</v>
+        <v>1.213427404795367</v>
       </c>
       <c r="R12">
-        <v>1.204218106881636</v>
+        <v>1.115485924792579</v>
       </c>
       <c r="S12">
-        <v>1.204218106881636</v>
+        <v>1.115485924792579</v>
       </c>
       <c r="T12">
-        <v>0.894512599654063</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.099775524443297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.6535133014708882</v>
+        <v>1.044401017080177</v>
       </c>
       <c r="D13">
-        <v>1.039018288742479</v>
+        <v>0.7004152279572802</v>
       </c>
       <c r="E13">
-        <v>1.186105343260665</v>
+        <v>1.159598233601814</v>
       </c>
       <c r="F13">
-        <v>0.6535133014708882</v>
+        <v>0.7004152279572802</v>
       </c>
       <c r="G13">
-        <v>1.283617992978145</v>
+        <v>1.159598233601814</v>
       </c>
       <c r="H13">
-        <v>0.9589762362083105</v>
+        <v>1.262395096519607</v>
       </c>
       <c r="I13">
-        <v>1.027484489848742</v>
+        <v>0.7930442547829045</v>
       </c>
       <c r="J13">
-        <v>1.039018288742479</v>
+        <v>1.079132099669294</v>
       </c>
       <c r="K13">
-        <v>0.6535133014708882</v>
+        <v>1.159598233601814</v>
       </c>
       <c r="L13">
-        <v>1.186105343260665</v>
+        <v>1.044401017080177</v>
       </c>
       <c r="M13">
-        <v>1.112561816001572</v>
+        <v>0.8724081225187287</v>
       </c>
       <c r="N13">
-        <v>1.112561816001572</v>
+        <v>0.8724081225187287</v>
       </c>
       <c r="O13">
-        <v>1.061366622737151</v>
+        <v>0.8459534999401206</v>
       </c>
       <c r="P13">
-        <v>0.9595456444913441</v>
+        <v>0.9681381595464238</v>
       </c>
       <c r="Q13">
-        <v>0.9595456444913441</v>
+        <v>0.9681381595464238</v>
       </c>
       <c r="R13">
-        <v>0.88303755873623</v>
+        <v>1.016003178060271</v>
       </c>
       <c r="S13">
-        <v>0.88303755873623</v>
+        <v>1.016003178060271</v>
       </c>
       <c r="T13">
-        <v>1.024785942084872</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.00649765493518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7520861600358774</v>
+        <v>0.1423060100000003</v>
       </c>
       <c r="D14">
-        <v>0.3813712719179751</v>
+        <v>6.887563199999992</v>
       </c>
       <c r="E14">
-        <v>1.320078409666073</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="F14">
-        <v>0.7520861600358774</v>
+        <v>6.887563199999992</v>
       </c>
       <c r="G14">
-        <v>1.604221700991156</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="H14">
-        <v>0.6863087614103456</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="I14">
-        <v>1.167465994453291</v>
+        <v>2.414857799999996</v>
       </c>
       <c r="J14">
-        <v>0.3813712719179751</v>
+        <v>0.1021455700000001</v>
       </c>
       <c r="K14">
-        <v>0.7520861600358774</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="L14">
-        <v>1.320078409666073</v>
+        <v>0.1423060100000003</v>
       </c>
       <c r="M14">
-        <v>0.850724840792024</v>
+        <v>3.514934604999996</v>
       </c>
       <c r="N14">
-        <v>0.850724840792024</v>
+        <v>3.514934604999996</v>
       </c>
       <c r="O14">
-        <v>0.7959194809981313</v>
+        <v>3.148242336666662</v>
       </c>
       <c r="P14">
-        <v>0.8178452805399751</v>
+        <v>2.351056655333331</v>
       </c>
       <c r="Q14">
-        <v>0.8178452805399751</v>
+        <v>2.351056655333331</v>
       </c>
       <c r="R14">
-        <v>0.8014055004139506</v>
+        <v>1.769117680499998</v>
       </c>
       <c r="S14">
-        <v>0.8014055004139506</v>
+        <v>1.769117680499998</v>
       </c>
       <c r="T14">
-        <v>0.9852553830791196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.595328776533331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.299517487579263</v>
+        <v>0.42160412</v>
       </c>
       <c r="D15">
-        <v>0.9779470090928964</v>
+        <v>0.023300756</v>
       </c>
       <c r="E15">
-        <v>0.868430043618947</v>
+        <v>3.4428622</v>
       </c>
       <c r="F15">
-        <v>1.299517487579263</v>
+        <v>0.023300756</v>
       </c>
       <c r="G15">
-        <v>1.131824778943258</v>
+        <v>3.4428622</v>
       </c>
       <c r="H15">
-        <v>0.9285479863510481</v>
+        <v>0.21380688</v>
       </c>
       <c r="I15">
-        <v>0.9859946765421506</v>
+        <v>0.39134565</v>
       </c>
       <c r="J15">
-        <v>0.9779470090928964</v>
+        <v>1.134</v>
       </c>
       <c r="K15">
-        <v>1.299517487579263</v>
+        <v>3.4428622</v>
       </c>
       <c r="L15">
-        <v>0.868430043618947</v>
+        <v>0.42160412</v>
       </c>
       <c r="M15">
-        <v>0.9231885263559217</v>
+        <v>0.222452438</v>
       </c>
       <c r="N15">
-        <v>0.9231885263559217</v>
+        <v>0.222452438</v>
       </c>
       <c r="O15">
-        <v>0.9249750130209639</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P15">
-        <v>1.048631513430369</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q15">
-        <v>1.048631513430369</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R15">
-        <v>1.111353006967592</v>
+        <v>1.832657319</v>
       </c>
       <c r="S15">
-        <v>1.111353006967592</v>
+        <v>1.832657319</v>
       </c>
       <c r="T15">
-        <v>1.032043663687927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9378199343333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9992206348544996</v>
+        <v>0.42160412</v>
       </c>
       <c r="D16">
-        <v>1.001199783745384</v>
+        <v>0.023300756</v>
       </c>
       <c r="E16">
-        <v>1.000287594564137</v>
+        <v>3.4428622</v>
       </c>
       <c r="F16">
-        <v>0.9992206348544996</v>
+        <v>0.023300756</v>
       </c>
       <c r="G16">
-        <v>1.000731203297439</v>
+        <v>3.4428622</v>
       </c>
       <c r="H16">
-        <v>0.9999629934562864</v>
+        <v>0.21380688</v>
       </c>
       <c r="I16">
-        <v>0.9999383791568319</v>
+        <v>0.39134565</v>
       </c>
       <c r="J16">
-        <v>1.001199783745384</v>
+        <v>1.134</v>
       </c>
       <c r="K16">
-        <v>0.9992206348544996</v>
+        <v>3.4428622</v>
       </c>
       <c r="L16">
-        <v>1.000287594564137</v>
+        <v>0.42160412</v>
       </c>
       <c r="M16">
-        <v>1.000743689154761</v>
+        <v>0.222452438</v>
       </c>
       <c r="N16">
-        <v>1.000743689154761</v>
+        <v>0.222452438</v>
       </c>
       <c r="O16">
-        <v>1.000483457255269</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P16">
-        <v>1.000236004388007</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q16">
-        <v>1.000236004388007</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R16">
-        <v>0.9999821620046303</v>
+        <v>1.832657319</v>
       </c>
       <c r="S16">
-        <v>0.9999821620046303</v>
+        <v>1.832657319</v>
       </c>
       <c r="T16">
-        <v>1.00022343151243</v>
+        <v>0.9378199343333332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9995797988130505</v>
+        <v>1.609916</v>
       </c>
       <c r="D17">
-        <v>1.007768945915993</v>
+        <v>0.0027750926</v>
       </c>
       <c r="E17">
-        <v>0.9982256504808694</v>
+        <v>0.28297856</v>
       </c>
       <c r="F17">
-        <v>0.9995797988130505</v>
+        <v>0.0027750926</v>
       </c>
       <c r="G17">
-        <v>0.9976229903493548</v>
+        <v>0.28297856</v>
       </c>
       <c r="H17">
-        <v>1.001991074795589</v>
+        <v>4.744874</v>
       </c>
       <c r="I17">
-        <v>0.9987702758859879</v>
+        <v>0.042095674</v>
       </c>
       <c r="J17">
-        <v>1.007768945915993</v>
+        <v>1.1764252</v>
       </c>
       <c r="K17">
-        <v>0.9995797988130505</v>
+        <v>0.28297856</v>
       </c>
       <c r="L17">
-        <v>0.9982256504808694</v>
+        <v>1.609916</v>
       </c>
       <c r="M17">
-        <v>1.002997298198431</v>
+        <v>0.8063455462999999</v>
       </c>
       <c r="N17">
-        <v>1.002997298198431</v>
+        <v>0.8063455462999999</v>
       </c>
       <c r="O17">
-        <v>1.002661890397484</v>
+        <v>0.5515955888666666</v>
       </c>
       <c r="P17">
-        <v>1.001858131736638</v>
+        <v>0.6318898841999999</v>
       </c>
       <c r="Q17">
-        <v>1.001858131736638</v>
+        <v>0.6318898841999999</v>
       </c>
       <c r="R17">
-        <v>1.001288548505741</v>
+        <v>0.5446620531499999</v>
       </c>
       <c r="S17">
-        <v>1.001288548505741</v>
+        <v>0.5446620531499999</v>
       </c>
       <c r="T17">
-        <v>1.000659789373474</v>
+        <v>1.309844087766667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.002417723924251</v>
+        <v>0.414567309589041</v>
       </c>
       <c r="D18">
-        <v>1.016453512814755</v>
+        <v>2.407561988547946</v>
       </c>
       <c r="E18">
-        <v>0.9929078595209913</v>
+        <v>1.255147524712329</v>
       </c>
       <c r="F18">
-        <v>1.002417723924251</v>
+        <v>2.407561988547946</v>
       </c>
       <c r="G18">
-        <v>0.9885302137362443</v>
+        <v>1.255147524712329</v>
       </c>
       <c r="H18">
-        <v>1.009027239547845</v>
+        <v>0.08133587555616437</v>
       </c>
       <c r="I18">
-        <v>0.9949656746586842</v>
+        <v>1.63628593109589</v>
       </c>
       <c r="J18">
-        <v>1.016453512814755</v>
+        <v>0.6439029484931508</v>
       </c>
       <c r="K18">
-        <v>1.002417723924251</v>
+        <v>1.255147524712329</v>
       </c>
       <c r="L18">
-        <v>0.9929078595209913</v>
+        <v>0.414567309589041</v>
       </c>
       <c r="M18">
-        <v>1.004680686167873</v>
+        <v>1.411064649068494</v>
       </c>
       <c r="N18">
-        <v>1.004680686167873</v>
+        <v>1.411064649068494</v>
       </c>
       <c r="O18">
-        <v>1.00612953729453</v>
+        <v>1.486138409744292</v>
       </c>
       <c r="P18">
-        <v>1.003926365419999</v>
+        <v>1.359092274283105</v>
       </c>
       <c r="Q18">
-        <v>1.003926365419999</v>
+        <v>1.359092274283106</v>
       </c>
       <c r="R18">
-        <v>1.003549205046062</v>
+        <v>1.333106086890411</v>
       </c>
       <c r="S18">
-        <v>1.003549205046062</v>
+        <v>1.333106086890411</v>
       </c>
       <c r="T18">
-        <v>1.000717037367129</v>
+        <v>1.07313359633242</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.007658835210097</v>
+        <v>1.095994567894737</v>
       </c>
       <c r="D19">
-        <v>1.043499468143434</v>
+        <v>1.342166235863157</v>
       </c>
       <c r="E19">
-        <v>0.981839738064384</v>
+        <v>0.8159869238421054</v>
       </c>
       <c r="F19">
-        <v>1.007658835210097</v>
+        <v>1.342166235863157</v>
       </c>
       <c r="G19">
-        <v>0.971147457381268</v>
+        <v>0.8159869238421054</v>
       </c>
       <c r="H19">
-        <v>1.02062361359641</v>
+        <v>1.739638943463158</v>
       </c>
       <c r="I19">
-        <v>0.988512668213866</v>
+        <v>0.8413760448421052</v>
       </c>
       <c r="J19">
-        <v>1.043499468143434</v>
+        <v>0.9822274357894737</v>
       </c>
       <c r="K19">
-        <v>1.007658835210097</v>
+        <v>0.8159869238421054</v>
       </c>
       <c r="L19">
-        <v>0.981839738064384</v>
+        <v>1.095994567894737</v>
       </c>
       <c r="M19">
-        <v>1.012669603103909</v>
+        <v>1.219080401878947</v>
       </c>
       <c r="N19">
-        <v>1.012669603103909</v>
+        <v>1.219080401878947</v>
       </c>
       <c r="O19">
-        <v>1.015320939934743</v>
+        <v>1.093178949533333</v>
       </c>
       <c r="P19">
-        <v>1.010999347139306</v>
+        <v>1.0847159092</v>
       </c>
       <c r="Q19">
-        <v>1.010999347139305</v>
+        <v>1.0847159092</v>
       </c>
       <c r="R19">
-        <v>1.010164219157003</v>
+        <v>1.017533662860526</v>
       </c>
       <c r="S19">
-        <v>1.010164219157003</v>
+        <v>1.017533662860526</v>
       </c>
       <c r="T19">
-        <v>1.002213630101576</v>
+        <v>1.136231691949123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.095994567894737</v>
+      </c>
+      <c r="D20">
+        <v>1.342166235863157</v>
+      </c>
+      <c r="E20">
+        <v>0.8159869238421054</v>
+      </c>
+      <c r="F20">
+        <v>1.342166235863157</v>
+      </c>
+      <c r="G20">
+        <v>0.8159869238421054</v>
+      </c>
+      <c r="H20">
+        <v>1.739638943463158</v>
+      </c>
+      <c r="I20">
+        <v>0.8413760448421052</v>
+      </c>
+      <c r="J20">
+        <v>0.9822274357894737</v>
+      </c>
+      <c r="K20">
+        <v>0.8159869238421054</v>
+      </c>
+      <c r="L20">
+        <v>1.095994567894737</v>
+      </c>
+      <c r="M20">
+        <v>1.219080401878947</v>
+      </c>
+      <c r="N20">
+        <v>1.219080401878947</v>
+      </c>
+      <c r="O20">
+        <v>1.093178949533333</v>
+      </c>
+      <c r="P20">
+        <v>1.0847159092</v>
+      </c>
+      <c r="Q20">
+        <v>1.0847159092</v>
+      </c>
+      <c r="R20">
+        <v>1.017533662860526</v>
+      </c>
+      <c r="S20">
+        <v>1.017533662860526</v>
+      </c>
+      <c r="T20">
+        <v>1.136231691949123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.320078409666073</v>
+      </c>
+      <c r="D21">
+        <v>0.381371271917975</v>
+      </c>
+      <c r="E21">
+        <v>0.7520861600358772</v>
+      </c>
+      <c r="F21">
+        <v>0.381371271917975</v>
+      </c>
+      <c r="G21">
+        <v>0.7520861600358772</v>
+      </c>
+      <c r="H21">
+        <v>1.604221700991157</v>
+      </c>
+      <c r="I21">
+        <v>0.6863087614103456</v>
+      </c>
+      <c r="J21">
+        <v>1.167465994453291</v>
+      </c>
+      <c r="K21">
+        <v>0.7520861600358772</v>
+      </c>
+      <c r="L21">
+        <v>1.320078409666073</v>
+      </c>
+      <c r="M21">
+        <v>0.8507248407920239</v>
+      </c>
+      <c r="N21">
+        <v>0.8507248407920239</v>
+      </c>
+      <c r="O21">
+        <v>0.7959194809981311</v>
+      </c>
+      <c r="P21">
+        <v>0.8178452805399751</v>
+      </c>
+      <c r="Q21">
+        <v>0.8178452805399751</v>
+      </c>
+      <c r="R21">
+        <v>0.8014055004139506</v>
+      </c>
+      <c r="S21">
+        <v>0.8014055004139506</v>
+      </c>
+      <c r="T21">
+        <v>0.9852553830791199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.868430043618947</v>
+      </c>
+      <c r="D22">
+        <v>0.9779470090928963</v>
+      </c>
+      <c r="E22">
+        <v>1.299517487579263</v>
+      </c>
+      <c r="F22">
+        <v>0.9779470090928963</v>
+      </c>
+      <c r="G22">
+        <v>1.299517487579263</v>
+      </c>
+      <c r="H22">
+        <v>1.131824778943258</v>
+      </c>
+      <c r="I22">
+        <v>0.9285479863510481</v>
+      </c>
+      <c r="J22">
+        <v>0.9859946765421506</v>
+      </c>
+      <c r="K22">
+        <v>1.299517487579263</v>
+      </c>
+      <c r="L22">
+        <v>0.868430043618947</v>
+      </c>
+      <c r="M22">
+        <v>0.9231885263559216</v>
+      </c>
+      <c r="N22">
+        <v>0.9231885263559216</v>
+      </c>
+      <c r="O22">
+        <v>0.9249750130209637</v>
+      </c>
+      <c r="P22">
+        <v>1.048631513430369</v>
+      </c>
+      <c r="Q22">
+        <v>1.048631513430369</v>
+      </c>
+      <c r="R22">
+        <v>1.111353006967592</v>
+      </c>
+      <c r="S22">
+        <v>1.111353006967592</v>
+      </c>
+      <c r="T22">
+        <v>1.032043663687927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.7841456195919567</v>
+      </c>
+      <c r="D23">
+        <v>0.3862134170529795</v>
+      </c>
+      <c r="E23">
+        <v>1.823256695440804</v>
+      </c>
+      <c r="F23">
+        <v>0.3862134170529795</v>
+      </c>
+      <c r="G23">
+        <v>1.823256695440804</v>
+      </c>
+      <c r="H23">
+        <v>0.4366272723675221</v>
+      </c>
+      <c r="I23">
+        <v>0.8424217582270386</v>
+      </c>
+      <c r="J23">
+        <v>1.094410835244078</v>
+      </c>
+      <c r="K23">
+        <v>1.823256695440804</v>
+      </c>
+      <c r="L23">
+        <v>0.7841456195919567</v>
+      </c>
+      <c r="M23">
+        <v>0.5851795183224682</v>
+      </c>
+      <c r="N23">
+        <v>0.5851795183224682</v>
+      </c>
+      <c r="O23">
+        <v>0.6709269316239915</v>
+      </c>
+      <c r="P23">
+        <v>0.9978719106952466</v>
+      </c>
+      <c r="Q23">
+        <v>0.9978719106952466</v>
+      </c>
+      <c r="R23">
+        <v>1.204218106881636</v>
+      </c>
+      <c r="S23">
+        <v>1.204218106881636</v>
+      </c>
+      <c r="T23">
+        <v>0.894512599654063</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.186105343260666</v>
+      </c>
+      <c r="D24">
+        <v>1.039018288742478</v>
+      </c>
+      <c r="E24">
+        <v>0.653513301470888</v>
+      </c>
+      <c r="F24">
+        <v>1.039018288742478</v>
+      </c>
+      <c r="G24">
+        <v>0.653513301470888</v>
+      </c>
+      <c r="H24">
+        <v>1.283617992978145</v>
+      </c>
+      <c r="I24">
+        <v>0.9589762362083106</v>
+      </c>
+      <c r="J24">
+        <v>1.027484489848742</v>
+      </c>
+      <c r="K24">
+        <v>0.653513301470888</v>
+      </c>
+      <c r="L24">
+        <v>1.186105343260666</v>
+      </c>
+      <c r="M24">
+        <v>1.112561816001572</v>
+      </c>
+      <c r="N24">
+        <v>1.112561816001572</v>
+      </c>
+      <c r="O24">
+        <v>1.061366622737151</v>
+      </c>
+      <c r="P24">
+        <v>0.9595456444913441</v>
+      </c>
+      <c r="Q24">
+        <v>0.9595456444913442</v>
+      </c>
+      <c r="R24">
+        <v>0.8830375587362301</v>
+      </c>
+      <c r="S24">
+        <v>0.8830375587362301</v>
+      </c>
+      <c r="T24">
+        <v>1.024785942084872</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.320078409666073</v>
+      </c>
+      <c r="D25">
+        <v>0.381371271917975</v>
+      </c>
+      <c r="E25">
+        <v>0.752086160035877</v>
+      </c>
+      <c r="F25">
+        <v>0.381371271917975</v>
+      </c>
+      <c r="G25">
+        <v>0.752086160035877</v>
+      </c>
+      <c r="H25">
+        <v>1.604221700991157</v>
+      </c>
+      <c r="I25">
+        <v>0.6863087614103456</v>
+      </c>
+      <c r="J25">
+        <v>1.167465994453291</v>
+      </c>
+      <c r="K25">
+        <v>0.752086160035877</v>
+      </c>
+      <c r="L25">
+        <v>1.320078409666073</v>
+      </c>
+      <c r="M25">
+        <v>0.850724840792024</v>
+      </c>
+      <c r="N25">
+        <v>0.850724840792024</v>
+      </c>
+      <c r="O25">
+        <v>0.7959194809981313</v>
+      </c>
+      <c r="P25">
+        <v>0.8178452805399751</v>
+      </c>
+      <c r="Q25">
+        <v>0.8178452805399751</v>
+      </c>
+      <c r="R25">
+        <v>0.8014055004139506</v>
+      </c>
+      <c r="S25">
+        <v>0.8014055004139506</v>
+      </c>
+      <c r="T25">
+        <v>0.9852553830791199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.8684300436189469</v>
+      </c>
+      <c r="D26">
+        <v>0.9779470090928981</v>
+      </c>
+      <c r="E26">
+        <v>1.299517487579263</v>
+      </c>
+      <c r="F26">
+        <v>0.9779470090928981</v>
+      </c>
+      <c r="G26">
+        <v>1.299517487579263</v>
+      </c>
+      <c r="H26">
+        <v>1.131824778943258</v>
+      </c>
+      <c r="I26">
+        <v>0.928547986351048</v>
+      </c>
+      <c r="J26">
+        <v>0.9859946765421507</v>
+      </c>
+      <c r="K26">
+        <v>1.299517487579263</v>
+      </c>
+      <c r="L26">
+        <v>0.8684300436189469</v>
+      </c>
+      <c r="M26">
+        <v>0.9231885263559225</v>
+      </c>
+      <c r="N26">
+        <v>0.9231885263559225</v>
+      </c>
+      <c r="O26">
+        <v>0.9249750130209643</v>
+      </c>
+      <c r="P26">
+        <v>1.048631513430369</v>
+      </c>
+      <c r="Q26">
+        <v>1.048631513430369</v>
+      </c>
+      <c r="R26">
+        <v>1.111353006967593</v>
+      </c>
+      <c r="S26">
+        <v>1.111353006967593</v>
+      </c>
+      <c r="T26">
+        <v>1.032043663687928</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9686420298896147</v>
+      </c>
+      <c r="D27">
+        <v>1.071443645091521</v>
+      </c>
+      <c r="E27">
+        <v>0.8799281229627143</v>
+      </c>
+      <c r="F27">
+        <v>1.071443645091521</v>
+      </c>
+      <c r="G27">
+        <v>0.8799281229627143</v>
+      </c>
+      <c r="H27">
+        <v>0.8265228570921981</v>
+      </c>
+      <c r="I27">
+        <v>1.142446626189448</v>
+      </c>
+      <c r="J27">
+        <v>0.9625160355460842</v>
+      </c>
+      <c r="K27">
+        <v>0.8799281229627143</v>
+      </c>
+      <c r="L27">
+        <v>0.9686420298896147</v>
+      </c>
+      <c r="M27">
+        <v>1.020042837490568</v>
+      </c>
+      <c r="N27">
+        <v>1.020042837490568</v>
+      </c>
+      <c r="O27">
+        <v>1.060844100390194</v>
+      </c>
+      <c r="P27">
+        <v>0.9733379326479499</v>
+      </c>
+      <c r="Q27">
+        <v>0.9733379326479499</v>
+      </c>
+      <c r="R27">
+        <v>0.949985480226641</v>
+      </c>
+      <c r="S27">
+        <v>0.949985480226641</v>
+      </c>
+      <c r="T27">
+        <v>0.9752498861285966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.032043225657281</v>
+      </c>
+      <c r="D28">
+        <v>0.9545249111883897</v>
+      </c>
+      <c r="E28">
+        <v>0.9477227940762019</v>
+      </c>
+      <c r="F28">
+        <v>0.9545249111883897</v>
+      </c>
+      <c r="G28">
+        <v>0.9477227940762019</v>
+      </c>
+      <c r="H28">
+        <v>1.32919212749928</v>
+      </c>
+      <c r="I28">
+        <v>0.9242762409073645</v>
+      </c>
+      <c r="J28">
+        <v>1.005285013643128</v>
+      </c>
+      <c r="K28">
+        <v>0.9477227940762019</v>
+      </c>
+      <c r="L28">
+        <v>1.032043225657281</v>
+      </c>
+      <c r="M28">
+        <v>0.9932840684228352</v>
+      </c>
+      <c r="N28">
+        <v>0.9932840684228352</v>
+      </c>
+      <c r="O28">
+        <v>0.9702814592510117</v>
+      </c>
+      <c r="P28">
+        <v>0.9780969769739575</v>
+      </c>
+      <c r="Q28">
+        <v>0.9780969769739575</v>
+      </c>
+      <c r="R28">
+        <v>0.9705034312495185</v>
+      </c>
+      <c r="S28">
+        <v>0.9705034312495185</v>
+      </c>
+      <c r="T28">
+        <v>1.032174052161941</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.268750004397336</v>
+      </c>
+      <c r="D29">
+        <v>0.2187269805015704</v>
+      </c>
+      <c r="E29">
+        <v>0.9518777570119051</v>
+      </c>
+      <c r="F29">
+        <v>0.2187269805015704</v>
+      </c>
+      <c r="G29">
+        <v>0.9518777570119051</v>
+      </c>
+      <c r="H29">
+        <v>1.752478288353283</v>
+      </c>
+      <c r="I29">
+        <v>0.6133061183367179</v>
+      </c>
+      <c r="J29">
+        <v>1.164543318421973</v>
+      </c>
+      <c r="K29">
+        <v>0.9518777570119051</v>
+      </c>
+      <c r="L29">
+        <v>1.268750004397336</v>
+      </c>
+      <c r="M29">
+        <v>0.7437384924494532</v>
+      </c>
+      <c r="N29">
+        <v>0.7437384924494532</v>
+      </c>
+      <c r="O29">
+        <v>0.7002610344118748</v>
+      </c>
+      <c r="P29">
+        <v>0.8131182473036039</v>
+      </c>
+      <c r="Q29">
+        <v>0.8131182473036039</v>
+      </c>
+      <c r="R29">
+        <v>0.8478081247306792</v>
+      </c>
+      <c r="S29">
+        <v>0.8478081247306792</v>
+      </c>
+      <c r="T29">
+        <v>0.9949470778371309</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9673218771989134</v>
+        <v>0.8833391104341288</v>
       </c>
       <c r="D4">
-        <v>0.8683684132755506</v>
+        <v>1.679608811178225</v>
       </c>
       <c r="E4">
-        <v>1.193244608897373</v>
+        <v>0.8440207403301154</v>
       </c>
       <c r="F4">
-        <v>0.8683684132755506</v>
+        <v>1.679608811178225</v>
       </c>
       <c r="G4">
-        <v>1.193244608897373</v>
+        <v>0.8440207403301154</v>
       </c>
       <c r="H4">
-        <v>0.9643700127566426</v>
+        <v>0.8091354226605793</v>
       </c>
       <c r="I4">
-        <v>0.9259373915567527</v>
+        <v>1.235638612406367</v>
       </c>
       <c r="J4">
-        <v>1.026809331528882</v>
+        <v>0.8717882282687709</v>
       </c>
       <c r="K4">
-        <v>1.193244608897373</v>
+        <v>0.8440207403301154</v>
       </c>
       <c r="L4">
-        <v>0.9673218771989134</v>
+        <v>0.8833391104341288</v>
       </c>
       <c r="M4">
-        <v>0.917845145237232</v>
+        <v>1.281473960806177</v>
       </c>
       <c r="N4">
-        <v>0.917845145237232</v>
+        <v>1.281473960806177</v>
       </c>
       <c r="O4">
-        <v>0.9205425606770722</v>
+        <v>1.266195511339574</v>
       </c>
       <c r="P4">
-        <v>1.009644966457279</v>
+        <v>1.13565622064749</v>
       </c>
       <c r="Q4">
-        <v>1.009644966457279</v>
+        <v>1.13565622064749</v>
       </c>
       <c r="R4">
-        <v>1.055544877067302</v>
+        <v>1.062747350568146</v>
       </c>
       <c r="S4">
-        <v>1.055544877067302</v>
+        <v>1.062747350568146</v>
       </c>
       <c r="T4">
-        <v>0.991008605869019</v>
+        <v>1.053921820879698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8563186802017255</v>
+        <v>1.188537314823157</v>
       </c>
       <c r="D5">
-        <v>1.810818290925788</v>
+        <v>0.9418479720296867</v>
       </c>
       <c r="E5">
-        <v>0.8405780694704599</v>
+        <v>0.8152802329331432</v>
       </c>
       <c r="F5">
-        <v>1.810818290925788</v>
+        <v>0.9418479720296867</v>
       </c>
       <c r="G5">
-        <v>0.8405780694704599</v>
+        <v>0.8152802329331432</v>
       </c>
       <c r="H5">
-        <v>0.7835222552246446</v>
+        <v>1.918793037201898</v>
       </c>
       <c r="I5">
-        <v>1.265534963316994</v>
+        <v>0.724705281272511</v>
       </c>
       <c r="J5">
-        <v>0.8504474434365958</v>
+        <v>1.048841773471372</v>
       </c>
       <c r="K5">
-        <v>0.8405780694704599</v>
+        <v>0.8152802329331432</v>
       </c>
       <c r="L5">
-        <v>0.8563186802017255</v>
+        <v>1.188537314823157</v>
       </c>
       <c r="M5">
-        <v>1.333568485563757</v>
+        <v>1.065192643426422</v>
       </c>
       <c r="N5">
-        <v>1.333568485563757</v>
+        <v>1.065192643426422</v>
       </c>
       <c r="O5">
-        <v>1.310890644814836</v>
+        <v>0.9516968560417851</v>
       </c>
       <c r="P5">
-        <v>1.169238346865991</v>
+        <v>0.9818885065953292</v>
       </c>
       <c r="Q5">
-        <v>1.169238346865991</v>
+        <v>0.9818885065953292</v>
       </c>
       <c r="R5">
-        <v>1.087073277517108</v>
+        <v>0.9402364381797828</v>
       </c>
       <c r="S5">
-        <v>1.087073277517108</v>
+        <v>0.9402364381797828</v>
       </c>
       <c r="T5">
-        <v>1.067869950429368</v>
+        <v>1.106334268621961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.5139014764337618</v>
+        <v>0.9673218771989134</v>
       </c>
       <c r="D6">
-        <v>4.271406148972337</v>
+        <v>0.8683684132755506</v>
       </c>
       <c r="E6">
-        <v>0.4384349566290215</v>
+        <v>1.193244608897373</v>
       </c>
       <c r="F6">
-        <v>4.271406148972337</v>
+        <v>0.8683684132755506</v>
       </c>
       <c r="G6">
-        <v>0.4384349566290215</v>
+        <v>1.193244608897373</v>
       </c>
       <c r="H6">
-        <v>0.4065919477434349</v>
+        <v>0.9643700127566426</v>
       </c>
       <c r="I6">
-        <v>1.821494922140581</v>
+        <v>0.9259373915567527</v>
       </c>
       <c r="J6">
-        <v>0.4889899027752946</v>
+        <v>1.026809331528882</v>
       </c>
       <c r="K6">
-        <v>0.4384349566290215</v>
+        <v>1.193244608897373</v>
       </c>
       <c r="L6">
-        <v>0.5139014764337618</v>
+        <v>0.9673218771989134</v>
       </c>
       <c r="M6">
-        <v>2.392653812703049</v>
+        <v>0.917845145237232</v>
       </c>
       <c r="N6">
-        <v>2.392653812703049</v>
+        <v>0.917845145237232</v>
       </c>
       <c r="O6">
-        <v>2.202267515848893</v>
+        <v>0.9205425606770722</v>
       </c>
       <c r="P6">
-        <v>1.74124752734504</v>
+        <v>1.009644966457279</v>
       </c>
       <c r="Q6">
-        <v>1.74124752734504</v>
+        <v>1.009644966457279</v>
       </c>
       <c r="R6">
-        <v>1.415544384666035</v>
+        <v>1.055544877067302</v>
       </c>
       <c r="S6">
-        <v>1.415544384666035</v>
+        <v>1.055544877067302</v>
       </c>
       <c r="T6">
-        <v>1.323469892449072</v>
+        <v>0.991008605869019</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9750786531737905</v>
+        <v>0.8563186802017255</v>
       </c>
       <c r="D7">
-        <v>1.063812384383186</v>
+        <v>1.810818290925788</v>
       </c>
       <c r="E7">
-        <v>1.008083673823141</v>
+        <v>0.8405780694704599</v>
       </c>
       <c r="F7">
-        <v>1.063812384383186</v>
+        <v>1.810818290925788</v>
       </c>
       <c r="G7">
-        <v>1.008083673823141</v>
+        <v>0.8405780694704599</v>
       </c>
       <c r="H7">
-        <v>0.959113549443349</v>
+        <v>0.7835222552246446</v>
       </c>
       <c r="I7">
-        <v>1.029092975019848</v>
+        <v>1.265534963316994</v>
       </c>
       <c r="J7">
-        <v>0.9840461929905662</v>
+        <v>0.8504474434365958</v>
       </c>
       <c r="K7">
-        <v>1.008083673823141</v>
+        <v>0.8405780694704599</v>
       </c>
       <c r="L7">
-        <v>0.9750786531737905</v>
+        <v>0.8563186802017255</v>
       </c>
       <c r="M7">
-        <v>1.019445518778488</v>
+        <v>1.333568485563757</v>
       </c>
       <c r="N7">
-        <v>1.019445518778488</v>
+        <v>1.333568485563757</v>
       </c>
       <c r="O7">
-        <v>1.022661337525608</v>
+        <v>1.310890644814836</v>
       </c>
       <c r="P7">
-        <v>1.015658237126706</v>
+        <v>1.169238346865991</v>
       </c>
       <c r="Q7">
-        <v>1.015658237126706</v>
+        <v>1.169238346865991</v>
       </c>
       <c r="R7">
-        <v>1.013764596300815</v>
+        <v>1.087073277517108</v>
       </c>
       <c r="S7">
-        <v>1.013764596300815</v>
+        <v>1.087073277517108</v>
       </c>
       <c r="T7">
-        <v>1.003204571472313</v>
+        <v>1.067869950429368</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9982256504808689</v>
+        <v>0.5139014764337618</v>
       </c>
       <c r="D8">
-        <v>1.007768945915994</v>
+        <v>4.271406148972337</v>
       </c>
       <c r="E8">
-        <v>0.9995797988130499</v>
+        <v>0.4384349566290215</v>
       </c>
       <c r="F8">
-        <v>1.007768945915994</v>
+        <v>4.271406148972337</v>
       </c>
       <c r="G8">
-        <v>0.9995797988130499</v>
+        <v>0.4384349566290215</v>
       </c>
       <c r="H8">
-        <v>0.9976229903493548</v>
+        <v>0.4065919477434349</v>
       </c>
       <c r="I8">
-        <v>1.00199107479559</v>
+        <v>1.821494922140581</v>
       </c>
       <c r="J8">
-        <v>0.9987702758859875</v>
+        <v>0.4889899027752946</v>
       </c>
       <c r="K8">
-        <v>0.9995797988130499</v>
+        <v>0.4384349566290215</v>
       </c>
       <c r="L8">
-        <v>0.9982256504808689</v>
+        <v>0.5139014764337618</v>
       </c>
       <c r="M8">
-        <v>1.002997298198431</v>
+        <v>2.392653812703049</v>
       </c>
       <c r="N8">
-        <v>1.002997298198431</v>
+        <v>2.392653812703049</v>
       </c>
       <c r="O8">
-        <v>1.002661890397484</v>
+        <v>2.202267515848893</v>
       </c>
       <c r="P8">
-        <v>1.001858131736638</v>
+        <v>1.74124752734504</v>
       </c>
       <c r="Q8">
-        <v>1.001858131736638</v>
+        <v>1.74124752734504</v>
       </c>
       <c r="R8">
-        <v>1.001288548505741</v>
+        <v>1.415544384666035</v>
       </c>
       <c r="S8">
-        <v>1.001288548505741</v>
+        <v>1.415544384666035</v>
       </c>
       <c r="T8">
-        <v>1.000659789373474</v>
+        <v>1.323469892449072</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9514014248817598</v>
+        <v>0.9750786531737905</v>
       </c>
       <c r="D9">
-        <v>1.123897035372008</v>
+        <v>1.063812384383186</v>
       </c>
       <c r="E9">
-        <v>1.017286118577783</v>
+        <v>1.008083673823141</v>
       </c>
       <c r="F9">
-        <v>1.123897035372008</v>
+        <v>1.063812384383186</v>
       </c>
       <c r="G9">
-        <v>1.017286118577783</v>
+        <v>1.008083673823141</v>
       </c>
       <c r="H9">
-        <v>0.9258221218428564</v>
+        <v>0.959113549443349</v>
       </c>
       <c r="I9">
-        <v>1.054285445223912</v>
+        <v>1.029092975019848</v>
       </c>
       <c r="J9">
-        <v>0.9694195785885517</v>
+        <v>0.9840461929905662</v>
       </c>
       <c r="K9">
-        <v>1.017286118577783</v>
+        <v>1.008083673823141</v>
       </c>
       <c r="L9">
-        <v>0.9514014248817598</v>
+        <v>0.9750786531737905</v>
       </c>
       <c r="M9">
-        <v>1.037649230126884</v>
+        <v>1.019445518778488</v>
       </c>
       <c r="N9">
-        <v>1.037649230126884</v>
+        <v>1.019445518778488</v>
       </c>
       <c r="O9">
-        <v>1.043194635159227</v>
+        <v>1.022661337525608</v>
       </c>
       <c r="P9">
-        <v>1.030861526277183</v>
+        <v>1.015658237126706</v>
       </c>
       <c r="Q9">
-        <v>1.030861526277183</v>
+        <v>1.015658237126706</v>
       </c>
       <c r="R9">
-        <v>1.027467674352333</v>
+        <v>1.013764596300815</v>
       </c>
       <c r="S9">
-        <v>1.027467674352333</v>
+        <v>1.013764596300815</v>
       </c>
       <c r="T9">
-        <v>1.007018620747812</v>
+        <v>1.003204571472313</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4935395774349269</v>
+        <v>0.9982256504808689</v>
       </c>
       <c r="D10">
-        <v>4.365451789680079</v>
+        <v>1.007768945915994</v>
       </c>
       <c r="E10">
-        <v>0.4432803623178325</v>
+        <v>0.9995797988130499</v>
       </c>
       <c r="F10">
-        <v>4.365451789680079</v>
+        <v>1.007768945915994</v>
       </c>
       <c r="G10">
-        <v>0.4432803623178325</v>
+        <v>0.9995797988130499</v>
       </c>
       <c r="H10">
-        <v>0.4192348238935361</v>
+        <v>0.9976229903493548</v>
       </c>
       <c r="I10">
-        <v>1.830018023504524</v>
+        <v>1.00199107479559</v>
       </c>
       <c r="J10">
-        <v>0.4761496841610014</v>
+        <v>0.9987702758859875</v>
       </c>
       <c r="K10">
-        <v>0.4432803623178325</v>
+        <v>0.9995797988130499</v>
       </c>
       <c r="L10">
-        <v>0.4935395774349269</v>
+        <v>0.9982256504808689</v>
       </c>
       <c r="M10">
-        <v>2.429495683557503</v>
+        <v>1.002997298198431</v>
       </c>
       <c r="N10">
-        <v>2.429495683557503</v>
+        <v>1.002997298198431</v>
       </c>
       <c r="O10">
-        <v>2.229669796873177</v>
+        <v>1.002661890397484</v>
       </c>
       <c r="P10">
-        <v>1.767423909810946</v>
+        <v>1.001858131736638</v>
       </c>
       <c r="Q10">
-        <v>1.767423909810946</v>
+        <v>1.001858131736638</v>
       </c>
       <c r="R10">
-        <v>1.436388022937668</v>
+        <v>1.001288548505741</v>
       </c>
       <c r="S10">
-        <v>1.436388022937668</v>
+        <v>1.001288548505741</v>
       </c>
       <c r="T10">
-        <v>1.337945710165316</v>
+        <v>1.000659789373474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9098745544558448</v>
+        <v>0.9514014248817598</v>
       </c>
       <c r="D11">
-        <v>0.9258926402114661</v>
+        <v>1.123897035372008</v>
       </c>
       <c r="E11">
-        <v>1.252685773956712</v>
+        <v>1.017286118577783</v>
       </c>
       <c r="F11">
-        <v>0.9258926402114661</v>
+        <v>1.123897035372008</v>
       </c>
       <c r="G11">
-        <v>1.252685773956712</v>
+        <v>1.017286118577783</v>
       </c>
       <c r="H11">
-        <v>0.7164331963700852</v>
+        <v>0.9258221218428564</v>
       </c>
       <c r="I11">
-        <v>1.009151722010942</v>
+        <v>1.054285445223912</v>
       </c>
       <c r="J11">
-        <v>1.000383986692722</v>
+        <v>0.9694195785885517</v>
       </c>
       <c r="K11">
-        <v>1.252685773956712</v>
+        <v>1.017286118577783</v>
       </c>
       <c r="L11">
-        <v>0.9098745544558448</v>
+        <v>0.9514014248817598</v>
       </c>
       <c r="M11">
-        <v>0.9178835973336554</v>
+        <v>1.037649230126884</v>
       </c>
       <c r="N11">
-        <v>0.9178835973336554</v>
+        <v>1.037649230126884</v>
       </c>
       <c r="O11">
-        <v>0.9483063055594178</v>
+        <v>1.043194635159227</v>
       </c>
       <c r="P11">
-        <v>1.029484322874674</v>
+        <v>1.030861526277183</v>
       </c>
       <c r="Q11">
-        <v>1.029484322874674</v>
+        <v>1.030861526277183</v>
       </c>
       <c r="R11">
-        <v>1.085284685645184</v>
+        <v>1.027467674352333</v>
       </c>
       <c r="S11">
-        <v>1.085284685645184</v>
+        <v>1.027467674352333</v>
       </c>
       <c r="T11">
-        <v>0.969070312282962</v>
+        <v>1.007018620747812</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8413248410421047</v>
+        <v>0.4935395774349269</v>
       </c>
       <c r="D12">
-        <v>1.977295888559785</v>
+        <v>4.365451789680079</v>
       </c>
       <c r="E12">
-        <v>0.8216614847842124</v>
+        <v>0.4432803623178325</v>
       </c>
       <c r="F12">
-        <v>1.977295888559785</v>
+        <v>4.365451789680079</v>
       </c>
       <c r="G12">
-        <v>0.8216614847842124</v>
+        <v>0.4432803623178325</v>
       </c>
       <c r="H12">
-        <v>0.8621178198347381</v>
+        <v>0.4192348238935361</v>
       </c>
       <c r="I12">
-        <v>1.261742296744206</v>
+        <v>1.830018023504524</v>
       </c>
       <c r="J12">
-        <v>0.8345108156947353</v>
+        <v>0.4761496841610014</v>
       </c>
       <c r="K12">
-        <v>0.8216614847842124</v>
+        <v>0.4432803623178325</v>
       </c>
       <c r="L12">
-        <v>0.8413248410421047</v>
+        <v>0.4935395774349269</v>
       </c>
       <c r="M12">
-        <v>1.409310364800945</v>
+        <v>2.429495683557503</v>
       </c>
       <c r="N12">
-        <v>1.409310364800945</v>
+        <v>2.429495683557503</v>
       </c>
       <c r="O12">
-        <v>1.360121008782032</v>
+        <v>2.229669796873177</v>
       </c>
       <c r="P12">
-        <v>1.213427404795367</v>
+        <v>1.767423909810946</v>
       </c>
       <c r="Q12">
-        <v>1.213427404795367</v>
+        <v>1.767423909810946</v>
       </c>
       <c r="R12">
-        <v>1.115485924792579</v>
+        <v>1.436388022937668</v>
       </c>
       <c r="S12">
-        <v>1.115485924792579</v>
+        <v>1.436388022937668</v>
       </c>
       <c r="T12">
-        <v>1.099775524443297</v>
+        <v>1.337945710165316</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.044401017080177</v>
+        <v>0.9098745544558448</v>
       </c>
       <c r="D13">
-        <v>0.7004152279572802</v>
+        <v>0.9258926402114661</v>
       </c>
       <c r="E13">
-        <v>1.159598233601814</v>
+        <v>1.252685773956712</v>
       </c>
       <c r="F13">
-        <v>0.7004152279572802</v>
+        <v>0.9258926402114661</v>
       </c>
       <c r="G13">
-        <v>1.159598233601814</v>
+        <v>1.252685773956712</v>
       </c>
       <c r="H13">
-        <v>1.262395096519607</v>
+        <v>0.7164331963700852</v>
       </c>
       <c r="I13">
-        <v>0.7930442547829045</v>
+        <v>1.009151722010942</v>
       </c>
       <c r="J13">
-        <v>1.079132099669294</v>
+        <v>1.000383986692722</v>
       </c>
       <c r="K13">
-        <v>1.159598233601814</v>
+        <v>1.252685773956712</v>
       </c>
       <c r="L13">
-        <v>1.044401017080177</v>
+        <v>0.9098745544558448</v>
       </c>
       <c r="M13">
-        <v>0.8724081225187287</v>
+        <v>0.9178835973336554</v>
       </c>
       <c r="N13">
-        <v>0.8724081225187287</v>
+        <v>0.9178835973336554</v>
       </c>
       <c r="O13">
-        <v>0.8459534999401206</v>
+        <v>0.9483063055594178</v>
       </c>
       <c r="P13">
-        <v>0.9681381595464238</v>
+        <v>1.029484322874674</v>
       </c>
       <c r="Q13">
-        <v>0.9681381595464238</v>
+        <v>1.029484322874674</v>
       </c>
       <c r="R13">
-        <v>1.016003178060271</v>
+        <v>1.085284685645184</v>
       </c>
       <c r="S13">
-        <v>1.016003178060271</v>
+        <v>1.085284685645184</v>
       </c>
       <c r="T13">
-        <v>1.00649765493518</v>
+        <v>0.969070312282962</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1423060100000003</v>
+        <v>0.8413248410421047</v>
       </c>
       <c r="D14">
-        <v>6.887563199999992</v>
+        <v>1.977295888559785</v>
       </c>
       <c r="E14">
-        <v>0.02330075600000002</v>
+        <v>0.8216614847842124</v>
       </c>
       <c r="F14">
-        <v>6.887563199999992</v>
+        <v>1.977295888559785</v>
       </c>
       <c r="G14">
-        <v>0.02330075600000002</v>
+        <v>0.8216614847842124</v>
       </c>
       <c r="H14">
-        <v>0.001799323199999997</v>
+        <v>0.8621178198347381</v>
       </c>
       <c r="I14">
-        <v>2.414857799999996</v>
+        <v>1.261742296744206</v>
       </c>
       <c r="J14">
-        <v>0.1021455700000001</v>
+        <v>0.8345108156947353</v>
       </c>
       <c r="K14">
-        <v>0.02330075600000002</v>
+        <v>0.8216614847842124</v>
       </c>
       <c r="L14">
-        <v>0.1423060100000003</v>
+        <v>0.8413248410421047</v>
       </c>
       <c r="M14">
-        <v>3.514934604999996</v>
+        <v>1.409310364800945</v>
       </c>
       <c r="N14">
-        <v>3.514934604999996</v>
+        <v>1.409310364800945</v>
       </c>
       <c r="O14">
-        <v>3.148242336666662</v>
+        <v>1.360121008782032</v>
       </c>
       <c r="P14">
-        <v>2.351056655333331</v>
+        <v>1.213427404795367</v>
       </c>
       <c r="Q14">
-        <v>2.351056655333331</v>
+        <v>1.213427404795367</v>
       </c>
       <c r="R14">
-        <v>1.769117680499998</v>
+        <v>1.115485924792579</v>
       </c>
       <c r="S14">
-        <v>1.769117680499998</v>
+        <v>1.115485924792579</v>
       </c>
       <c r="T14">
-        <v>1.595328776533331</v>
+        <v>1.099775524443297</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.42160412</v>
+        <v>1.044401017080177</v>
       </c>
       <c r="D15">
-        <v>0.023300756</v>
+        <v>0.7004152279572802</v>
       </c>
       <c r="E15">
-        <v>3.4428622</v>
+        <v>1.159598233601814</v>
       </c>
       <c r="F15">
-        <v>0.023300756</v>
+        <v>0.7004152279572802</v>
       </c>
       <c r="G15">
-        <v>3.4428622</v>
+        <v>1.159598233601814</v>
       </c>
       <c r="H15">
-        <v>0.21380688</v>
+        <v>1.262395096519607</v>
       </c>
       <c r="I15">
-        <v>0.39134565</v>
+        <v>0.7930442547829045</v>
       </c>
       <c r="J15">
-        <v>1.134</v>
+        <v>1.079132099669294</v>
       </c>
       <c r="K15">
-        <v>3.4428622</v>
+        <v>1.159598233601814</v>
       </c>
       <c r="L15">
-        <v>0.42160412</v>
+        <v>1.044401017080177</v>
       </c>
       <c r="M15">
-        <v>0.222452438</v>
+        <v>0.8724081225187287</v>
       </c>
       <c r="N15">
-        <v>0.222452438</v>
+        <v>0.8724081225187287</v>
       </c>
       <c r="O15">
-        <v>0.2787501753333333</v>
+        <v>0.8459534999401206</v>
       </c>
       <c r="P15">
-        <v>1.295922358666667</v>
+        <v>0.9681381595464238</v>
       </c>
       <c r="Q15">
-        <v>1.295922358666667</v>
+        <v>0.9681381595464238</v>
       </c>
       <c r="R15">
-        <v>1.832657319</v>
+        <v>1.016003178060271</v>
       </c>
       <c r="S15">
-        <v>1.832657319</v>
+        <v>1.016003178060271</v>
       </c>
       <c r="T15">
-        <v>0.9378199343333332</v>
+        <v>1.00649765493518</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.42160412</v>
+        <v>0.1423060100000003</v>
       </c>
       <c r="D16">
-        <v>0.023300756</v>
+        <v>6.887563199999992</v>
       </c>
       <c r="E16">
-        <v>3.4428622</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="F16">
-        <v>0.023300756</v>
+        <v>6.887563199999992</v>
       </c>
       <c r="G16">
-        <v>3.4428622</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="H16">
-        <v>0.21380688</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="I16">
-        <v>0.39134565</v>
+        <v>2.414857799999996</v>
       </c>
       <c r="J16">
-        <v>1.134</v>
+        <v>0.1021455700000001</v>
       </c>
       <c r="K16">
-        <v>3.4428622</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="L16">
-        <v>0.42160412</v>
+        <v>0.1423060100000003</v>
       </c>
       <c r="M16">
-        <v>0.222452438</v>
+        <v>3.514934604999996</v>
       </c>
       <c r="N16">
-        <v>0.222452438</v>
+        <v>3.514934604999996</v>
       </c>
       <c r="O16">
-        <v>0.2787501753333333</v>
+        <v>3.148242336666662</v>
       </c>
       <c r="P16">
-        <v>1.295922358666667</v>
+        <v>2.351056655333331</v>
       </c>
       <c r="Q16">
-        <v>1.295922358666667</v>
+        <v>2.351056655333331</v>
       </c>
       <c r="R16">
-        <v>1.832657319</v>
+        <v>1.769117680499998</v>
       </c>
       <c r="S16">
-        <v>1.832657319</v>
+        <v>1.769117680499998</v>
       </c>
       <c r="T16">
-        <v>0.9378199343333332</v>
+        <v>1.595328776533331</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.609916</v>
+        <v>0.42160412</v>
       </c>
       <c r="D17">
-        <v>0.0027750926</v>
+        <v>0.023300756</v>
       </c>
       <c r="E17">
-        <v>0.28297856</v>
+        <v>3.4428622</v>
       </c>
       <c r="F17">
-        <v>0.0027750926</v>
+        <v>0.023300756</v>
       </c>
       <c r="G17">
-        <v>0.28297856</v>
+        <v>3.4428622</v>
       </c>
       <c r="H17">
-        <v>4.744874</v>
+        <v>0.21380688</v>
       </c>
       <c r="I17">
-        <v>0.042095674</v>
+        <v>0.39134565</v>
       </c>
       <c r="J17">
-        <v>1.1764252</v>
+        <v>1.134</v>
       </c>
       <c r="K17">
-        <v>0.28297856</v>
+        <v>3.4428622</v>
       </c>
       <c r="L17">
-        <v>1.609916</v>
+        <v>0.42160412</v>
       </c>
       <c r="M17">
-        <v>0.8063455462999999</v>
+        <v>0.222452438</v>
       </c>
       <c r="N17">
-        <v>0.8063455462999999</v>
+        <v>0.222452438</v>
       </c>
       <c r="O17">
-        <v>0.5515955888666666</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P17">
-        <v>0.6318898841999999</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q17">
-        <v>0.6318898841999999</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R17">
-        <v>0.5446620531499999</v>
+        <v>1.832657319</v>
       </c>
       <c r="S17">
-        <v>0.5446620531499999</v>
+        <v>1.832657319</v>
       </c>
       <c r="T17">
-        <v>1.309844087766667</v>
+        <v>0.9378199343333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.414567309589041</v>
+        <v>0.42160412</v>
       </c>
       <c r="D18">
-        <v>2.407561988547946</v>
+        <v>0.023300756</v>
       </c>
       <c r="E18">
-        <v>1.255147524712329</v>
+        <v>3.4428622</v>
       </c>
       <c r="F18">
-        <v>2.407561988547946</v>
+        <v>0.023300756</v>
       </c>
       <c r="G18">
-        <v>1.255147524712329</v>
+        <v>3.4428622</v>
       </c>
       <c r="H18">
-        <v>0.08133587555616437</v>
+        <v>0.21380688</v>
       </c>
       <c r="I18">
-        <v>1.63628593109589</v>
+        <v>0.39134565</v>
       </c>
       <c r="J18">
-        <v>0.6439029484931508</v>
+        <v>1.134</v>
       </c>
       <c r="K18">
-        <v>1.255147524712329</v>
+        <v>3.4428622</v>
       </c>
       <c r="L18">
-        <v>0.414567309589041</v>
+        <v>0.42160412</v>
       </c>
       <c r="M18">
-        <v>1.411064649068494</v>
+        <v>0.222452438</v>
       </c>
       <c r="N18">
-        <v>1.411064649068494</v>
+        <v>0.222452438</v>
       </c>
       <c r="O18">
-        <v>1.486138409744292</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P18">
-        <v>1.359092274283105</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q18">
-        <v>1.359092274283106</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R18">
-        <v>1.333106086890411</v>
+        <v>1.832657319</v>
       </c>
       <c r="S18">
-        <v>1.333106086890411</v>
+        <v>1.832657319</v>
       </c>
       <c r="T18">
-        <v>1.07313359633242</v>
+        <v>0.9378199343333332</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.095994567894737</v>
+        <v>1.609916</v>
       </c>
       <c r="D19">
-        <v>1.342166235863157</v>
+        <v>0.0027750926</v>
       </c>
       <c r="E19">
-        <v>0.8159869238421054</v>
+        <v>0.28297856</v>
       </c>
       <c r="F19">
-        <v>1.342166235863157</v>
+        <v>0.0027750926</v>
       </c>
       <c r="G19">
-        <v>0.8159869238421054</v>
+        <v>0.28297856</v>
       </c>
       <c r="H19">
-        <v>1.739638943463158</v>
+        <v>4.744874</v>
       </c>
       <c r="I19">
-        <v>0.8413760448421052</v>
+        <v>0.042095674</v>
       </c>
       <c r="J19">
-        <v>0.9822274357894737</v>
+        <v>1.1764252</v>
       </c>
       <c r="K19">
-        <v>0.8159869238421054</v>
+        <v>0.28297856</v>
       </c>
       <c r="L19">
-        <v>1.095994567894737</v>
+        <v>1.609916</v>
       </c>
       <c r="M19">
-        <v>1.219080401878947</v>
+        <v>0.8063455462999999</v>
       </c>
       <c r="N19">
-        <v>1.219080401878947</v>
+        <v>0.8063455462999999</v>
       </c>
       <c r="O19">
-        <v>1.093178949533333</v>
+        <v>0.5515955888666666</v>
       </c>
       <c r="P19">
-        <v>1.0847159092</v>
+        <v>0.6318898841999999</v>
       </c>
       <c r="Q19">
-        <v>1.0847159092</v>
+        <v>0.6318898841999999</v>
       </c>
       <c r="R19">
-        <v>1.017533662860526</v>
+        <v>0.5446620531499999</v>
       </c>
       <c r="S19">
-        <v>1.017533662860526</v>
+        <v>0.5446620531499999</v>
       </c>
       <c r="T19">
-        <v>1.136231691949123</v>
+        <v>1.309844087766667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.095994567894737</v>
+        <v>0.414567309589041</v>
       </c>
       <c r="D20">
-        <v>1.342166235863157</v>
+        <v>2.407561988547946</v>
       </c>
       <c r="E20">
-        <v>0.8159869238421054</v>
+        <v>1.255147524712329</v>
       </c>
       <c r="F20">
-        <v>1.342166235863157</v>
+        <v>2.407561988547946</v>
       </c>
       <c r="G20">
-        <v>0.8159869238421054</v>
+        <v>1.255147524712329</v>
       </c>
       <c r="H20">
-        <v>1.739638943463158</v>
+        <v>0.08133587555616437</v>
       </c>
       <c r="I20">
-        <v>0.8413760448421052</v>
+        <v>1.63628593109589</v>
       </c>
       <c r="J20">
-        <v>0.9822274357894737</v>
+        <v>0.6439029484931508</v>
       </c>
       <c r="K20">
-        <v>0.8159869238421054</v>
+        <v>1.255147524712329</v>
       </c>
       <c r="L20">
-        <v>1.095994567894737</v>
+        <v>0.414567309589041</v>
       </c>
       <c r="M20">
-        <v>1.219080401878947</v>
+        <v>1.411064649068494</v>
       </c>
       <c r="N20">
-        <v>1.219080401878947</v>
+        <v>1.411064649068494</v>
       </c>
       <c r="O20">
-        <v>1.093178949533333</v>
+        <v>1.486138409744292</v>
       </c>
       <c r="P20">
-        <v>1.0847159092</v>
+        <v>1.359092274283105</v>
       </c>
       <c r="Q20">
-        <v>1.0847159092</v>
+        <v>1.359092274283106</v>
       </c>
       <c r="R20">
-        <v>1.017533662860526</v>
+        <v>1.333106086890411</v>
       </c>
       <c r="S20">
-        <v>1.017533662860526</v>
+        <v>1.333106086890411</v>
       </c>
       <c r="T20">
-        <v>1.136231691949123</v>
+        <v>1.07313359633242</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.320078409666073</v>
+        <v>1.095994567894737</v>
       </c>
       <c r="D21">
-        <v>0.381371271917975</v>
+        <v>1.342166235863157</v>
       </c>
       <c r="E21">
-        <v>0.7520861600358772</v>
+        <v>0.8159869238421054</v>
       </c>
       <c r="F21">
-        <v>0.381371271917975</v>
+        <v>1.342166235863157</v>
       </c>
       <c r="G21">
-        <v>0.7520861600358772</v>
+        <v>0.8159869238421054</v>
       </c>
       <c r="H21">
-        <v>1.604221700991157</v>
+        <v>1.739638943463158</v>
       </c>
       <c r="I21">
-        <v>0.6863087614103456</v>
+        <v>0.8413760448421052</v>
       </c>
       <c r="J21">
-        <v>1.167465994453291</v>
+        <v>0.9822274357894737</v>
       </c>
       <c r="K21">
-        <v>0.7520861600358772</v>
+        <v>0.8159869238421054</v>
       </c>
       <c r="L21">
-        <v>1.320078409666073</v>
+        <v>1.095994567894737</v>
       </c>
       <c r="M21">
-        <v>0.8507248407920239</v>
+        <v>1.219080401878947</v>
       </c>
       <c r="N21">
-        <v>0.8507248407920239</v>
+        <v>1.219080401878947</v>
       </c>
       <c r="O21">
-        <v>0.7959194809981311</v>
+        <v>1.093178949533333</v>
       </c>
       <c r="P21">
-        <v>0.8178452805399751</v>
+        <v>1.0847159092</v>
       </c>
       <c r="Q21">
-        <v>0.8178452805399751</v>
+        <v>1.0847159092</v>
       </c>
       <c r="R21">
-        <v>0.8014055004139506</v>
+        <v>1.017533662860526</v>
       </c>
       <c r="S21">
-        <v>0.8014055004139506</v>
+        <v>1.017533662860526</v>
       </c>
       <c r="T21">
-        <v>0.9852553830791199</v>
+        <v>1.136231691949123</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.868430043618947</v>
+        <v>1.095994567894737</v>
       </c>
       <c r="D22">
-        <v>0.9779470090928963</v>
+        <v>1.342166235863157</v>
       </c>
       <c r="E22">
-        <v>1.299517487579263</v>
+        <v>0.8159869238421054</v>
       </c>
       <c r="F22">
-        <v>0.9779470090928963</v>
+        <v>1.342166235863157</v>
       </c>
       <c r="G22">
-        <v>1.299517487579263</v>
+        <v>0.8159869238421054</v>
       </c>
       <c r="H22">
-        <v>1.131824778943258</v>
+        <v>1.739638943463158</v>
       </c>
       <c r="I22">
-        <v>0.9285479863510481</v>
+        <v>0.8413760448421052</v>
       </c>
       <c r="J22">
-        <v>0.9859946765421506</v>
+        <v>0.9822274357894737</v>
       </c>
       <c r="K22">
-        <v>1.299517487579263</v>
+        <v>0.8159869238421054</v>
       </c>
       <c r="L22">
-        <v>0.868430043618947</v>
+        <v>1.095994567894737</v>
       </c>
       <c r="M22">
-        <v>0.9231885263559216</v>
+        <v>1.219080401878947</v>
       </c>
       <c r="N22">
-        <v>0.9231885263559216</v>
+        <v>1.219080401878947</v>
       </c>
       <c r="O22">
-        <v>0.9249750130209637</v>
+        <v>1.093178949533333</v>
       </c>
       <c r="P22">
-        <v>1.048631513430369</v>
+        <v>1.0847159092</v>
       </c>
       <c r="Q22">
-        <v>1.048631513430369</v>
+        <v>1.0847159092</v>
       </c>
       <c r="R22">
-        <v>1.111353006967592</v>
+        <v>1.017533662860526</v>
       </c>
       <c r="S22">
-        <v>1.111353006967592</v>
+        <v>1.017533662860526</v>
       </c>
       <c r="T22">
-        <v>1.032043663687927</v>
+        <v>1.136231691949123</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7841456195919567</v>
+        <v>1.320078409666073</v>
       </c>
       <c r="D23">
-        <v>0.3862134170529795</v>
+        <v>0.381371271917975</v>
       </c>
       <c r="E23">
-        <v>1.823256695440804</v>
+        <v>0.7520861600358772</v>
       </c>
       <c r="F23">
-        <v>0.3862134170529795</v>
+        <v>0.381371271917975</v>
       </c>
       <c r="G23">
-        <v>1.823256695440804</v>
+        <v>0.7520861600358772</v>
       </c>
       <c r="H23">
-        <v>0.4366272723675221</v>
+        <v>1.604221700991157</v>
       </c>
       <c r="I23">
-        <v>0.8424217582270386</v>
+        <v>0.6863087614103456</v>
       </c>
       <c r="J23">
-        <v>1.094410835244078</v>
+        <v>1.167465994453291</v>
       </c>
       <c r="K23">
-        <v>1.823256695440804</v>
+        <v>0.7520861600358772</v>
       </c>
       <c r="L23">
-        <v>0.7841456195919567</v>
+        <v>1.320078409666073</v>
       </c>
       <c r="M23">
-        <v>0.5851795183224682</v>
+        <v>0.8507248407920239</v>
       </c>
       <c r="N23">
-        <v>0.5851795183224682</v>
+        <v>0.8507248407920239</v>
       </c>
       <c r="O23">
-        <v>0.6709269316239915</v>
+        <v>0.7959194809981311</v>
       </c>
       <c r="P23">
-        <v>0.9978719106952466</v>
+        <v>0.8178452805399751</v>
       </c>
       <c r="Q23">
-        <v>0.9978719106952466</v>
+        <v>0.8178452805399751</v>
       </c>
       <c r="R23">
-        <v>1.204218106881636</v>
+        <v>0.8014055004139506</v>
       </c>
       <c r="S23">
-        <v>1.204218106881636</v>
+        <v>0.8014055004139506</v>
       </c>
       <c r="T23">
-        <v>0.894512599654063</v>
+        <v>0.9852553830791199</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.186105343260666</v>
+        <v>0.868430043618947</v>
       </c>
       <c r="D24">
-        <v>1.039018288742478</v>
+        <v>0.9779470090928963</v>
       </c>
       <c r="E24">
-        <v>0.653513301470888</v>
+        <v>1.299517487579263</v>
       </c>
       <c r="F24">
-        <v>1.039018288742478</v>
+        <v>0.9779470090928963</v>
       </c>
       <c r="G24">
-        <v>0.653513301470888</v>
+        <v>1.299517487579263</v>
       </c>
       <c r="H24">
-        <v>1.283617992978145</v>
+        <v>1.131824778943258</v>
       </c>
       <c r="I24">
-        <v>0.9589762362083106</v>
+        <v>0.9285479863510481</v>
       </c>
       <c r="J24">
-        <v>1.027484489848742</v>
+        <v>0.9859946765421506</v>
       </c>
       <c r="K24">
-        <v>0.653513301470888</v>
+        <v>1.299517487579263</v>
       </c>
       <c r="L24">
-        <v>1.186105343260666</v>
+        <v>0.868430043618947</v>
       </c>
       <c r="M24">
-        <v>1.112561816001572</v>
+        <v>0.9231885263559216</v>
       </c>
       <c r="N24">
-        <v>1.112561816001572</v>
+        <v>0.9231885263559216</v>
       </c>
       <c r="O24">
-        <v>1.061366622737151</v>
+        <v>0.9249750130209637</v>
       </c>
       <c r="P24">
-        <v>0.9595456444913441</v>
+        <v>1.048631513430369</v>
       </c>
       <c r="Q24">
-        <v>0.9595456444913442</v>
+        <v>1.048631513430369</v>
       </c>
       <c r="R24">
-        <v>0.8830375587362301</v>
+        <v>1.111353006967592</v>
       </c>
       <c r="S24">
-        <v>0.8830375587362301</v>
+        <v>1.111353006967592</v>
       </c>
       <c r="T24">
-        <v>1.024785942084872</v>
+        <v>1.032043663687927</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.320078409666073</v>
+        <v>0.7841456195919567</v>
       </c>
       <c r="D25">
-        <v>0.381371271917975</v>
+        <v>0.3862134170529795</v>
       </c>
       <c r="E25">
-        <v>0.752086160035877</v>
+        <v>1.823256695440804</v>
       </c>
       <c r="F25">
-        <v>0.381371271917975</v>
+        <v>0.3862134170529795</v>
       </c>
       <c r="G25">
-        <v>0.752086160035877</v>
+        <v>1.823256695440804</v>
       </c>
       <c r="H25">
-        <v>1.604221700991157</v>
+        <v>0.4366272723675221</v>
       </c>
       <c r="I25">
-        <v>0.6863087614103456</v>
+        <v>0.8424217582270386</v>
       </c>
       <c r="J25">
-        <v>1.167465994453291</v>
+        <v>1.094410835244078</v>
       </c>
       <c r="K25">
-        <v>0.752086160035877</v>
+        <v>1.823256695440804</v>
       </c>
       <c r="L25">
-        <v>1.320078409666073</v>
+        <v>0.7841456195919567</v>
       </c>
       <c r="M25">
-        <v>0.850724840792024</v>
+        <v>0.5851795183224682</v>
       </c>
       <c r="N25">
-        <v>0.850724840792024</v>
+        <v>0.5851795183224682</v>
       </c>
       <c r="O25">
-        <v>0.7959194809981313</v>
+        <v>0.6709269316239915</v>
       </c>
       <c r="P25">
-        <v>0.8178452805399751</v>
+        <v>0.9978719106952466</v>
       </c>
       <c r="Q25">
-        <v>0.8178452805399751</v>
+        <v>0.9978719106952466</v>
       </c>
       <c r="R25">
-        <v>0.8014055004139506</v>
+        <v>1.204218106881636</v>
       </c>
       <c r="S25">
-        <v>0.8014055004139506</v>
+        <v>1.204218106881636</v>
       </c>
       <c r="T25">
-        <v>0.9852553830791199</v>
+        <v>0.894512599654063</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.8684300436189469</v>
+        <v>1.186105343260666</v>
       </c>
       <c r="D26">
-        <v>0.9779470090928981</v>
+        <v>1.039018288742478</v>
       </c>
       <c r="E26">
-        <v>1.299517487579263</v>
+        <v>0.653513301470888</v>
       </c>
       <c r="F26">
-        <v>0.9779470090928981</v>
+        <v>1.039018288742478</v>
       </c>
       <c r="G26">
-        <v>1.299517487579263</v>
+        <v>0.653513301470888</v>
       </c>
       <c r="H26">
-        <v>1.131824778943258</v>
+        <v>1.283617992978145</v>
       </c>
       <c r="I26">
-        <v>0.928547986351048</v>
+        <v>0.9589762362083106</v>
       </c>
       <c r="J26">
-        <v>0.9859946765421507</v>
+        <v>1.027484489848742</v>
       </c>
       <c r="K26">
-        <v>1.299517487579263</v>
+        <v>0.653513301470888</v>
       </c>
       <c r="L26">
-        <v>0.8684300436189469</v>
+        <v>1.186105343260666</v>
       </c>
       <c r="M26">
-        <v>0.9231885263559225</v>
+        <v>1.112561816001572</v>
       </c>
       <c r="N26">
-        <v>0.9231885263559225</v>
+        <v>1.112561816001572</v>
       </c>
       <c r="O26">
-        <v>0.9249750130209643</v>
+        <v>1.061366622737151</v>
       </c>
       <c r="P26">
-        <v>1.048631513430369</v>
+        <v>0.9595456444913441</v>
       </c>
       <c r="Q26">
-        <v>1.048631513430369</v>
+        <v>0.9595456444913442</v>
       </c>
       <c r="R26">
-        <v>1.111353006967593</v>
+        <v>0.8830375587362301</v>
       </c>
       <c r="S26">
-        <v>1.111353006967593</v>
+        <v>0.8830375587362301</v>
       </c>
       <c r="T26">
-        <v>1.032043663687928</v>
+        <v>1.024785942084872</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9686420298896147</v>
+        <v>1.320078409666073</v>
       </c>
       <c r="D27">
-        <v>1.071443645091521</v>
+        <v>0.381371271917975</v>
       </c>
       <c r="E27">
-        <v>0.8799281229627143</v>
+        <v>0.752086160035877</v>
       </c>
       <c r="F27">
-        <v>1.071443645091521</v>
+        <v>0.381371271917975</v>
       </c>
       <c r="G27">
-        <v>0.8799281229627143</v>
+        <v>0.752086160035877</v>
       </c>
       <c r="H27">
-        <v>0.8265228570921981</v>
+        <v>1.604221700991157</v>
       </c>
       <c r="I27">
-        <v>1.142446626189448</v>
+        <v>0.6863087614103456</v>
       </c>
       <c r="J27">
-        <v>0.9625160355460842</v>
+        <v>1.167465994453291</v>
       </c>
       <c r="K27">
-        <v>0.8799281229627143</v>
+        <v>0.752086160035877</v>
       </c>
       <c r="L27">
-        <v>0.9686420298896147</v>
+        <v>1.320078409666073</v>
       </c>
       <c r="M27">
-        <v>1.020042837490568</v>
+        <v>0.850724840792024</v>
       </c>
       <c r="N27">
-        <v>1.020042837490568</v>
+        <v>0.850724840792024</v>
       </c>
       <c r="O27">
-        <v>1.060844100390194</v>
+        <v>0.7959194809981313</v>
       </c>
       <c r="P27">
-        <v>0.9733379326479499</v>
+        <v>0.8178452805399751</v>
       </c>
       <c r="Q27">
-        <v>0.9733379326479499</v>
+        <v>0.8178452805399751</v>
       </c>
       <c r="R27">
-        <v>0.949985480226641</v>
+        <v>0.8014055004139506</v>
       </c>
       <c r="S27">
-        <v>0.949985480226641</v>
+        <v>0.8014055004139506</v>
       </c>
       <c r="T27">
-        <v>0.9752498861285966</v>
+        <v>0.9852553830791199</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.032043225657281</v>
+        <v>0.8684300436189469</v>
       </c>
       <c r="D28">
-        <v>0.9545249111883897</v>
+        <v>0.9779470090928981</v>
       </c>
       <c r="E28">
-        <v>0.9477227940762019</v>
+        <v>1.299517487579263</v>
       </c>
       <c r="F28">
-        <v>0.9545249111883897</v>
+        <v>0.9779470090928981</v>
       </c>
       <c r="G28">
-        <v>0.9477227940762019</v>
+        <v>1.299517487579263</v>
       </c>
       <c r="H28">
-        <v>1.32919212749928</v>
+        <v>1.131824778943258</v>
       </c>
       <c r="I28">
-        <v>0.9242762409073645</v>
+        <v>0.928547986351048</v>
       </c>
       <c r="J28">
-        <v>1.005285013643128</v>
+        <v>0.9859946765421507</v>
       </c>
       <c r="K28">
-        <v>0.9477227940762019</v>
+        <v>1.299517487579263</v>
       </c>
       <c r="L28">
-        <v>1.032043225657281</v>
+        <v>0.8684300436189469</v>
       </c>
       <c r="M28">
-        <v>0.9932840684228352</v>
+        <v>0.9231885263559225</v>
       </c>
       <c r="N28">
-        <v>0.9932840684228352</v>
+        <v>0.9231885263559225</v>
       </c>
       <c r="O28">
-        <v>0.9702814592510117</v>
+        <v>0.9249750130209643</v>
       </c>
       <c r="P28">
-        <v>0.9780969769739575</v>
+        <v>1.048631513430369</v>
       </c>
       <c r="Q28">
-        <v>0.9780969769739575</v>
+        <v>1.048631513430369</v>
       </c>
       <c r="R28">
-        <v>0.9705034312495185</v>
+        <v>1.111353006967593</v>
       </c>
       <c r="S28">
-        <v>0.9705034312495185</v>
+        <v>1.111353006967593</v>
       </c>
       <c r="T28">
-        <v>1.032174052161941</v>
+        <v>1.032043663687928</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9686420298896147</v>
+      </c>
+      <c r="D29">
+        <v>1.071443645091521</v>
+      </c>
+      <c r="E29">
+        <v>0.8799281229627143</v>
+      </c>
+      <c r="F29">
+        <v>1.071443645091521</v>
+      </c>
+      <c r="G29">
+        <v>0.8799281229627143</v>
+      </c>
+      <c r="H29">
+        <v>0.8265228570921981</v>
+      </c>
+      <c r="I29">
+        <v>1.142446626189448</v>
+      </c>
+      <c r="J29">
+        <v>0.9625160355460842</v>
+      </c>
+      <c r="K29">
+        <v>0.8799281229627143</v>
+      </c>
+      <c r="L29">
+        <v>0.9686420298896147</v>
+      </c>
+      <c r="M29">
+        <v>1.020042837490568</v>
+      </c>
+      <c r="N29">
+        <v>1.020042837490568</v>
+      </c>
+      <c r="O29">
+        <v>1.060844100390194</v>
+      </c>
+      <c r="P29">
+        <v>0.9733379326479499</v>
+      </c>
+      <c r="Q29">
+        <v>0.9733379326479499</v>
+      </c>
+      <c r="R29">
+        <v>0.949985480226641</v>
+      </c>
+      <c r="S29">
+        <v>0.949985480226641</v>
+      </c>
+      <c r="T29">
+        <v>0.9752498861285966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.032043225657281</v>
+      </c>
+      <c r="D30">
+        <v>0.9545249111883897</v>
+      </c>
+      <c r="E30">
+        <v>0.9477227940762019</v>
+      </c>
+      <c r="F30">
+        <v>0.9545249111883897</v>
+      </c>
+      <c r="G30">
+        <v>0.9477227940762019</v>
+      </c>
+      <c r="H30">
+        <v>1.32919212749928</v>
+      </c>
+      <c r="I30">
+        <v>0.9242762409073645</v>
+      </c>
+      <c r="J30">
+        <v>1.005285013643128</v>
+      </c>
+      <c r="K30">
+        <v>0.9477227940762019</v>
+      </c>
+      <c r="L30">
+        <v>1.032043225657281</v>
+      </c>
+      <c r="M30">
+        <v>0.9932840684228352</v>
+      </c>
+      <c r="N30">
+        <v>0.9932840684228352</v>
+      </c>
+      <c r="O30">
+        <v>0.9702814592510117</v>
+      </c>
+      <c r="P30">
+        <v>0.9780969769739575</v>
+      </c>
+      <c r="Q30">
+        <v>0.9780969769739575</v>
+      </c>
+      <c r="R30">
+        <v>0.9705034312495185</v>
+      </c>
+      <c r="S30">
+        <v>0.9705034312495185</v>
+      </c>
+      <c r="T30">
+        <v>1.032174052161941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.268750004397336</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.2187269805015704</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9518777570119051</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.2187269805015704</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9518777570119051</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.752478288353283</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.6133061183367179</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.164543318421973</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9518777570119051</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.268750004397336</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.7437384924494532</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.7437384924494532</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.7002610344118748</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.8131182473036039</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.8131182473036039</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.8478081247306792</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.8478081247306792</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9949470778371309</v>
       </c>
     </row>
